--- a/ROU.xlsx
+++ b/ROU.xlsx
@@ -512,340 +512,340 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Academica Clinceni,L L L L D D L L L D L</t>
-  </si>
-  <si>
-    <t>CFR Cluj,W W W W W W L W W W L</t>
-  </si>
-  <si>
-    <t>Chindia Targoviste,D L W D D L W W D L D</t>
-  </si>
-  <si>
-    <t>Din. Bucuresti,L W L L L L L L L D L</t>
-  </si>
-  <si>
-    <t>Farul Constanta,W D W L W D W L W L L</t>
-  </si>
-  <si>
-    <t>FC Arges,L D L W L W W W D D W</t>
-  </si>
-  <si>
-    <t>FC Botosani,W W W W L D W W D D D</t>
-  </si>
-  <si>
-    <t>FC Rapid Bucuresti,W D W W W L D L L D W</t>
-  </si>
-  <si>
-    <t>FC Steaua Bucuresti,W D W L D L W W W W W</t>
-  </si>
-  <si>
-    <t>FC Voluntari,L W L W L W W W W W W</t>
-  </si>
-  <si>
-    <t>Gaz Metan Medias,L D L L L L L W D L W</t>
-  </si>
-  <si>
-    <t>Mioveni,L W L W W D L L L D L</t>
-  </si>
-  <si>
-    <t>Sepsi Sf. Gheorghe,D L L L D D D D D D L</t>
-  </si>
-  <si>
-    <t>U Craiova 1948,W L W D L D L L D L L</t>
-  </si>
-  <si>
-    <t>Univ. Craiova,L L W L W W D L W W W</t>
-  </si>
-  <si>
-    <t>UTA Arad,W D L W W W D D L D W</t>
-  </si>
-  <si>
-    <t>Academica Clinceni,1 1 1 0 2 1 0 0 2 1 0,(9)</t>
-  </si>
-  <si>
-    <t>CFR Cluj,2 1 1 1 1 4 0 1 1 2 0,(14)</t>
-  </si>
-  <si>
-    <t>Chindia Targoviste,1 0 1 0 2 1 1 2 0 0 0,(8)</t>
-  </si>
-  <si>
-    <t>Din. Bucuresti,0 3 0 0 0 0 0 1 0 2 1,(7)</t>
-  </si>
-  <si>
-    <t>Farul Constanta,2 0 1 0 3 1 5 0 2 0 1,(15)</t>
-  </si>
-  <si>
-    <t>FC Arges,0 2 0 2 0 2 1 1 0 0 2,(10)</t>
-  </si>
-  <si>
-    <t>FC Botosani,1 2 2 1 0 1 1 2 1 1 0,(12)</t>
-  </si>
-  <si>
-    <t>FC Rapid Bucuresti,2 0 1 1 2 1 2 1 0 2 2,(14)</t>
-  </si>
-  <si>
-    <t>FC Steaua Bucuresti,4 1 2 0 1 1 6 1 3 1 3,(23)</t>
-  </si>
-  <si>
-    <t>FC Voluntari,0 2 0 1 0 2 2 4 1 1 2,(15)</t>
-  </si>
-  <si>
-    <t>Gaz Metan Medias,0 2 1 0 0 0 1 2 0 1 2,(9)</t>
-  </si>
-  <si>
-    <t>Mioveni,0 2 0 1 1 1 0 0 1 0 0,(6)</t>
-  </si>
-  <si>
-    <t>Sepsi Sf. Gheorghe,1 1 0 0 1 1 1 0 0 2 1,(8)</t>
-  </si>
-  <si>
-    <t>U Craiova 1948,1 1 2 0 0 1 0 0 1 0 0,(6)</t>
-  </si>
-  <si>
-    <t>Univ. Craiova,1 1 3 0 1 2 1 0 5 2 5,(21)</t>
-  </si>
-  <si>
-    <t>UTA Arad,1 1 1 1 2 1 2 0 0 2 1,(12)</t>
-  </si>
-  <si>
-    <t>Academica Clinceni,2 3 2 1 2 1 5 1 3 1 5,(26)</t>
-  </si>
-  <si>
-    <t>CFR Cluj,1 0 0 0 0 1 1 0 0 1 2,(6)</t>
-  </si>
-  <si>
-    <t>Chindia Targoviste,1 1 0 0 2 2 0 0 0 1 0,(7)</t>
-  </si>
-  <si>
-    <t>Din. Bucuresti,1 1 1 1 3 2 6 2 5 2 2,(26)</t>
-  </si>
-  <si>
-    <t>Farul Constanta,0 0 0 1 0 1 0 2 1 1 2,(8)</t>
-  </si>
-  <si>
-    <t>FC Arges,1 2 1 0 1 0 0 0 0 0 1,(6)</t>
-  </si>
-  <si>
-    <t>FC Botosani,0 1 1 0 2 1 0 1 1 1 0,(8)</t>
-  </si>
-  <si>
-    <t>FC Rapid Bucuresti,0 0 0 0 0 2 2 2 1 2 0,(9)</t>
-  </si>
-  <si>
-    <t>FC Steaua Bucuresti,1 1 1 1 1 4 0 0 2 0 0,(11)</t>
-  </si>
-  <si>
-    <t>FC Voluntari,1 1 3 0 2 1 1 0 0 0 1,(10)</t>
-  </si>
-  <si>
-    <t>Gaz Metan Medias,2 2 2 1 1 1 2 1 0 2 1,(15)</t>
-  </si>
-  <si>
-    <t>Mioveni,2 1 1 0 0 1 1 4 2 0 3,(15)</t>
-  </si>
-  <si>
-    <t>Sepsi Sf. Gheorghe,1 2 1 2 1 1 1 0 0 2 2,(13)</t>
-  </si>
-  <si>
-    <t>U Craiova 1948,0 2 1 0 1 1 1 1 1 2 1,(11)</t>
-  </si>
-  <si>
-    <t>Univ. Craiova,4 2 0 1 0 1 1 1 0 0 0,(10)</t>
-  </si>
-  <si>
-    <t>UTA Arad,0 1 2 0 0 0 2 0 1 2 0,(8)</t>
-  </si>
-  <si>
-    <t>Academica Clinceni,3 4 3 1 4 2 5 1 5 2 5,(35)</t>
-  </si>
-  <si>
-    <t>CFR Cluj,3 1 1 1 1 5 1 1 1 3 2,(20)</t>
-  </si>
-  <si>
-    <t>Chindia Targoviste,2 1 1 0 4 3 1 2 0 1 0,(15)</t>
-  </si>
-  <si>
-    <t>Din. Bucuresti,1 4 1 1 3 2 6 3 5 4 3,(33)</t>
-  </si>
-  <si>
-    <t>Farul Constanta,2 0 1 1 3 2 5 2 3 1 3,(23)</t>
-  </si>
-  <si>
-    <t>FC Arges,1 4 1 2 1 2 1 1 0 0 3,(16)</t>
-  </si>
-  <si>
-    <t>FC Botosani,1 3 3 1 2 2 1 3 2 2 0,(20)</t>
-  </si>
-  <si>
-    <t>FC Rapid Bucuresti,2 0 1 1 2 3 4 3 1 4 2,(23)</t>
-  </si>
-  <si>
-    <t>FC Steaua Bucuresti,5 2 3 1 2 5 6 1 5 1 3,(34)</t>
-  </si>
-  <si>
-    <t>FC Voluntari,1 3 3 1 2 3 3 4 1 1 3,(25)</t>
-  </si>
-  <si>
-    <t>Gaz Metan Medias,2 4 3 1 1 1 3 3 0 3 3,(24)</t>
-  </si>
-  <si>
-    <t>Mioveni,2 3 1 1 1 2 1 4 3 0 3,(21)</t>
-  </si>
-  <si>
-    <t>Sepsi Sf. Gheorghe,2 3 1 2 2 2 2 0 0 4 3,(21)</t>
-  </si>
-  <si>
-    <t>U Craiova 1948,1 3 3 0 1 2 1 1 2 2 1,(17)</t>
-  </si>
-  <si>
-    <t>Univ. Craiova,5 3 3 1 1 3 2 1 5 2 5,(31)</t>
-  </si>
-  <si>
-    <t>UTA Arad,1 2 3 1 2 1 4 0 1 4 1,(20)</t>
-  </si>
-  <si>
-    <t>Academica Clinceni,1-2 3-1 1-2 1-0 2-2 1-1 5-0 0-1 3-2 1-1 5-0</t>
-  </si>
-  <si>
-    <t>CFR Cluj,1-2 1-0 0-1 1-0 0-1 4-1 1-0 1-0 0-1 2-1 2-0</t>
-  </si>
-  <si>
-    <t>Chindia Targoviste,1-1 1-0 1-0 0-0 2-2 2-1 0-1 2-0 0-0 0-1 0-0</t>
-  </si>
-  <si>
-    <t>Din. Bucuresti,1-0 3-1 1-0 0-1 3-0 0-2 6-0 1-2 5-0 2-2 2-1</t>
-  </si>
-  <si>
-    <t>Farul Constanta,2-0 0-0 1-0 1-0 3-0 1-1 5-0 2-0 2-1 1-0 2-1</t>
-  </si>
-  <si>
-    <t>FC Arges,0-1 2-2 0-1 0-2 0-1 0-2 1-0 0-1 0-0 0-0 2-1</t>
-  </si>
-  <si>
-    <t>FC Botosani,0-1 1-2 2-1 0-1 0-2 1-1 1-0 1-2 1-1 1-1 0-0</t>
-  </si>
-  <si>
-    <t>FC Rapid Bucuresti,0-2 0-0 0-1 1-0 0-2 1-2 2-2 1-2 0-1 2-2 2-0</t>
-  </si>
-  <si>
-    <t>FC Steaua Bucuresti,4-1 1-1 2-1 1-0 1-1 4-1 6-0 0-1 3-2 0-1 3-0</t>
-  </si>
-  <si>
-    <t>FC Voluntari,0-1 2-1 3-0 1-0 2-0 2-1 1-2 4-0 0-1 1-0 1-2</t>
-  </si>
-  <si>
-    <t>Gaz Metan Medias,2-0 2-2 2-1 0-1 1-0 0-1 1-2 1-2 0-0 2-1 2-1</t>
-  </si>
-  <si>
-    <t>Mioveni,0-2 1-2 0-1 0-1 1-0 1-1 0-1 4-0 2-1 0-0 3-0</t>
-  </si>
-  <si>
-    <t>Sepsi Sf. Gheorghe,1-1 1-2 1-0 0-2 1-1 1-1 1-1 0-0 0-0 2-2 1-2</t>
-  </si>
-  <si>
-    <t>U Craiova 1948,1-0 2-1 1-2 0-0 1-0 1-1 1-0 0-1 1-1 0-2 1-0</t>
-  </si>
-  <si>
-    <t>Univ. Craiova,4-1 1-2 3-0 1-0 1-0 1-2 1-1 1-0 5-0 0-2 5-0</t>
-  </si>
-  <si>
-    <t>UTA Arad,0-1 1-1 2-1 1-0 2-0 0-1 2-2 0-0 0-1 2-2 1-0</t>
-  </si>
-  <si>
-    <t>Academica Clinceni,-1 -2 -1 -1 0 0 -5 -1 -1 0 -5,(-17)</t>
-  </si>
-  <si>
-    <t>CFR Cluj,1 1 1 1 1 3 -1 1 1 1 -2,(8)</t>
-  </si>
-  <si>
-    <t>Chindia Targoviste,0 -1 1 0 0 -1 1 2 0 -1 0,(1)</t>
-  </si>
-  <si>
-    <t>Din. Bucuresti,-1 2 -1 -1 -3 -2 -6 -1 -5 0 -1,(-19)</t>
-  </si>
-  <si>
-    <t>Farul Constanta,2 0 1 -1 3 0 5 -2 1 -1 -1,(7)</t>
-  </si>
-  <si>
-    <t>FC Arges,-1 0 -1 2 -1 2 1 1 0 0 1,(4)</t>
-  </si>
-  <si>
-    <t>FC Botosani,1 1 1 1 -2 0 1 1 0 0 0,(4)</t>
-  </si>
-  <si>
-    <t>FC Rapid Bucuresti,2 0 1 1 2 -1 0 -1 -1 0 2,(5)</t>
-  </si>
-  <si>
-    <t>FC Steaua Bucuresti,3 0 1 -1 0 -3 6 1 1 1 3,(12)</t>
-  </si>
-  <si>
-    <t>FC Voluntari,-1 1 -3 1 -2 1 1 4 1 1 1,(5)</t>
-  </si>
-  <si>
-    <t>Gaz Metan Medias,-2 0 -1 -1 -1 -1 -1 1 0 -1 1,(-6)</t>
-  </si>
-  <si>
-    <t>Mioveni,-2 1 -1 1 1 0 -1 -4 -1 0 -3,(-9)</t>
-  </si>
-  <si>
-    <t>Sepsi Sf. Gheorghe,0 -1 -1 -2 0 0 0 0 0 0 -1,(-5)</t>
-  </si>
-  <si>
-    <t>U Craiova 1948,1 -1 1 0 -1 0 -1 -1 0 -2 -1,(-5)</t>
-  </si>
-  <si>
-    <t>Univ. Craiova,-3 -1 3 -1 1 1 0 -1 5 2 5,(11)</t>
-  </si>
-  <si>
-    <t>UTA Arad,1 0 -1 1 2 1 0 0 -1 0 1,(4)</t>
-  </si>
-  <si>
-    <t>Academica Clinceni,CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(14) FC Voluntari(3) Chindia Targoviste(10) Mioveni(12) Farul Constanta(8) FC Arges(9) FC Steaua Bucuresti(2) FC Botosani(4) Univ. Craiova(5)</t>
-  </si>
-  <si>
-    <t>CFR Cluj,Academica Clinceni(16) Chindia Targoviste(10) Mioveni(12) Farul Constanta(8) FC Arges(9) FC Steaua Bucuresti(2) FC Botosani(4) Univ. Craiova(5) UTA Arad(7) Gaz Metan Medias(11) FC Rapid Bucuresti(6)</t>
-  </si>
-  <si>
-    <t>Chindia Targoviste,Sepsi Sf. Gheorghe(13) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(14) Academica Clinceni(16) FC Voluntari(3) Mioveni(12) Farul Constanta(8) FC Arges(9) FC Steaua Bucuresti(2) FC Botosani(4)</t>
-  </si>
-  <si>
-    <t>Din. Bucuresti,U Craiova 1948(14) Academica Clinceni(16) Chindia Targoviste(10) Mioveni(12) Farul Constanta(8) FC Arges(9) FC Steaua Bucuresti(2) FC Botosani(4) Univ. Craiova(5) UTA Arad(7) Gaz Metan Medias(11)</t>
-  </si>
-  <si>
-    <t>Farul Constanta,Gaz Metan Medias(11) FC Rapid Bucuresti(6) Sepsi Sf. Gheorghe(13) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(14) Academica Clinceni(16) Chindia Targoviste(10) Mioveni(12) FC Voluntari(3) FC Arges(9)</t>
-  </si>
-  <si>
-    <t>FC Arges,UTA Arad(7) Gaz Metan Medias(11) FC Rapid Bucuresti(6) Sepsi Sf. Gheorghe(13) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(14) Academica Clinceni(16) Chindia Targoviste(10) Mioveni(12) Farul Constanta(8)</t>
-  </si>
-  <si>
-    <t>FC Botosani,FC Voluntari(3) Univ. Craiova(5) UTA Arad(7) Gaz Metan Medias(11) FC Rapid Bucuresti(6) Sepsi Sf. Gheorghe(13) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(14) Academica Clinceni(16) Chindia Targoviste(10)</t>
-  </si>
-  <si>
-    <t>FC Rapid Bucuresti,Mioveni(12) Farul Constanta(8) FC Arges(9) FC Steaua Bucuresti(2) FC Botosani(4) Univ. Craiova(5) UTA Arad(7) Gaz Metan Medias(11) FC Voluntari(3) Sepsi Sf. Gheorghe(13) CFR Cluj(1)</t>
-  </si>
-  <si>
-    <t>FC Steaua Bucuresti,Univ. Craiova(5) UTA Arad(7) Gaz Metan Medias(11) FC Rapid Bucuresti(6) Sepsi Sf. Gheorghe(13) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(14) Academica Clinceni(16) Chindia Targoviste(10) Mioveni(12)</t>
-  </si>
-  <si>
-    <t>FC Voluntari,FC Botosani(4) U Craiova 1948(14) Univ. Craiova(5) Academica Clinceni(16) UTA Arad(7) Chindia Targoviste(10) Gaz Metan Medias(11) Mioveni(12) FC Rapid Bucuresti(6) Farul Constanta(8) Sepsi Sf. Gheorghe(13)</t>
-  </si>
-  <si>
-    <t>Gaz Metan Medias,Farul Constanta(8) FC Arges(9) FC Steaua Bucuresti(2) FC Botosani(4) Univ. Craiova(5) UTA Arad(7) FC Voluntari(3) FC Rapid Bucuresti(6) Sepsi Sf. Gheorghe(13) CFR Cluj(1) Din. Bucuresti(15)</t>
-  </si>
-  <si>
-    <t>Mioveni,FC Rapid Bucuresti(6) Sepsi Sf. Gheorghe(13) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(14) Academica Clinceni(16) Chindia Targoviste(10) FC Voluntari(3) Farul Constanta(8) FC Arges(9) FC Steaua Bucuresti(2)</t>
-  </si>
-  <si>
-    <t>Sepsi Sf. Gheorghe,Chindia Targoviste(10) Mioveni(12) Farul Constanta(8) FC Arges(9) FC Steaua Bucuresti(2) FC Botosani(4) Univ. Craiova(5) UTA Arad(7) Gaz Metan Medias(11) FC Rapid Bucuresti(6) FC Voluntari(3)</t>
-  </si>
-  <si>
-    <t>U Craiova 1948,Din. Bucuresti(15) FC Voluntari(3) Academica Clinceni(16) Chindia Targoviste(10) Mioveni(12) Farul Constanta(8) FC Arges(9) FC Steaua Bucuresti(2) FC Botosani(4) Univ. Craiova(5) UTA Arad(7)</t>
-  </si>
-  <si>
-    <t>Univ. Craiova,FC Steaua Bucuresti(2) FC Botosani(4) FC Voluntari(3) UTA Arad(7) Gaz Metan Medias(11) FC Rapid Bucuresti(6) Sepsi Sf. Gheorghe(13) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(14) Academica Clinceni(16)</t>
-  </si>
-  <si>
-    <t>UTA Arad,FC Arges(9) FC Steaua Bucuresti(2) FC Botosani(4) Univ. Craiova(5) FC Voluntari(3) Gaz Metan Medias(11) FC Rapid Bucuresti(6) Sepsi Sf. Gheorghe(13) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(14)</t>
+    <t>Academica Clinceni,D L L L D L</t>
+  </si>
+  <si>
+    <t>CFR Cluj,W L W W W L</t>
+  </si>
+  <si>
+    <t>Chindia Targoviste,L W W D L D</t>
+  </si>
+  <si>
+    <t>Din. Bucuresti,L L L L D L</t>
+  </si>
+  <si>
+    <t>Farul Constanta,D W L W L L</t>
+  </si>
+  <si>
+    <t>FC Arges,W W W D D W</t>
+  </si>
+  <si>
+    <t>FC Botosani,D W W D D D</t>
+  </si>
+  <si>
+    <t>FC Rapid Bucuresti,L D L L D W</t>
+  </si>
+  <si>
+    <t>FC Steaua Bucuresti,L W W W W W</t>
+  </si>
+  <si>
+    <t>FC Voluntari,W W W W W W</t>
+  </si>
+  <si>
+    <t>Gaz Metan Medias,L L W D L W</t>
+  </si>
+  <si>
+    <t>Mioveni,D L L L D L</t>
+  </si>
+  <si>
+    <t>Sepsi Sf. Gheorghe,D D D D D L</t>
+  </si>
+  <si>
+    <t>U Craiova 1948,D L L D L L</t>
+  </si>
+  <si>
+    <t>Univ. Craiova,W D L W W W</t>
+  </si>
+  <si>
+    <t>UTA Arad,W D D L D W</t>
+  </si>
+  <si>
+    <t>Academica Clinceni,1 0 0 2 1 0,(4)</t>
+  </si>
+  <si>
+    <t>CFR Cluj,4 0 1 1 2 0,(8)</t>
+  </si>
+  <si>
+    <t>Chindia Targoviste,1 1 2 0 0 0,(4)</t>
+  </si>
+  <si>
+    <t>Din. Bucuresti,0 0 1 0 2 1,(4)</t>
+  </si>
+  <si>
+    <t>Farul Constanta,1 5 0 2 0 1,(9)</t>
+  </si>
+  <si>
+    <t>FC Arges,2 1 1 0 0 2,(6)</t>
+  </si>
+  <si>
+    <t>FC Botosani,1 1 2 1 1 0,(6)</t>
+  </si>
+  <si>
+    <t>FC Rapid Bucuresti,1 2 1 0 2 2,(8)</t>
+  </si>
+  <si>
+    <t>FC Steaua Bucuresti,1 6 1 3 1 3,(15)</t>
+  </si>
+  <si>
+    <t>FC Voluntari,2 2 4 1 1 2,(12)</t>
+  </si>
+  <si>
+    <t>Gaz Metan Medias,0 1 2 0 1 2,(6)</t>
+  </si>
+  <si>
+    <t>Mioveni,1 0 0 1 0 0,(2)</t>
+  </si>
+  <si>
+    <t>Sepsi Sf. Gheorghe,1 1 0 0 2 1,(5)</t>
+  </si>
+  <si>
+    <t>U Craiova 1948,1 0 0 1 0 0,(2)</t>
+  </si>
+  <si>
+    <t>Univ. Craiova,2 1 0 5 2 5,(15)</t>
+  </si>
+  <si>
+    <t>UTA Arad,1 2 0 0 2 1,(6)</t>
+  </si>
+  <si>
+    <t>Academica Clinceni,1 5 1 3 1 5,(16)</t>
+  </si>
+  <si>
+    <t>CFR Cluj,1 1 0 0 1 2,(5)</t>
+  </si>
+  <si>
+    <t>Chindia Targoviste,2 0 0 0 1 0,(3)</t>
+  </si>
+  <si>
+    <t>Din. Bucuresti,2 6 2 5 2 2,(19)</t>
+  </si>
+  <si>
+    <t>Farul Constanta,1 0 2 1 1 2,(7)</t>
+  </si>
+  <si>
+    <t>FC Arges,0 0 0 0 0 1,(1)</t>
+  </si>
+  <si>
+    <t>FC Botosani,1 0 1 1 1 0,(4)</t>
+  </si>
+  <si>
+    <t>FC Rapid Bucuresti,2 2 2 1 2 0,(9)</t>
+  </si>
+  <si>
+    <t>FC Steaua Bucuresti,4 0 0 2 0 0,(6)</t>
+  </si>
+  <si>
+    <t>FC Voluntari,1 1 0 0 0 1,(3)</t>
+  </si>
+  <si>
+    <t>Gaz Metan Medias,1 2 1 0 2 1,(7)</t>
+  </si>
+  <si>
+    <t>Mioveni,1 1 4 2 0 3,(11)</t>
+  </si>
+  <si>
+    <t>Sepsi Sf. Gheorghe,1 1 0 0 2 2,(6)</t>
+  </si>
+  <si>
+    <t>U Craiova 1948,1 1 1 1 2 1,(7)</t>
+  </si>
+  <si>
+    <t>Univ. Craiova,1 1 1 0 0 0,(3)</t>
+  </si>
+  <si>
+    <t>UTA Arad,0 2 0 1 2 0,(5)</t>
+  </si>
+  <si>
+    <t>Academica Clinceni,2 5 1 5 2 5,(20)</t>
+  </si>
+  <si>
+    <t>CFR Cluj,5 1 1 1 3 2,(13)</t>
+  </si>
+  <si>
+    <t>Chindia Targoviste,3 1 2 0 1 0,(7)</t>
+  </si>
+  <si>
+    <t>Din. Bucuresti,2 6 3 5 4 3,(23)</t>
+  </si>
+  <si>
+    <t>Farul Constanta,2 5 2 3 1 3,(16)</t>
+  </si>
+  <si>
+    <t>FC Arges,2 1 1 0 0 3,(7)</t>
+  </si>
+  <si>
+    <t>FC Botosani,2 1 3 2 2 0,(10)</t>
+  </si>
+  <si>
+    <t>FC Rapid Bucuresti,3 4 3 1 4 2,(17)</t>
+  </si>
+  <si>
+    <t>FC Steaua Bucuresti,5 6 1 5 1 3,(21)</t>
+  </si>
+  <si>
+    <t>FC Voluntari,3 3 4 1 1 3,(15)</t>
+  </si>
+  <si>
+    <t>Gaz Metan Medias,1 3 3 0 3 3,(13)</t>
+  </si>
+  <si>
+    <t>Mioveni,2 1 4 3 0 3,(13)</t>
+  </si>
+  <si>
+    <t>Sepsi Sf. Gheorghe,2 2 0 0 4 3,(11)</t>
+  </si>
+  <si>
+    <t>U Craiova 1948,2 1 1 2 2 1,(9)</t>
+  </si>
+  <si>
+    <t>Univ. Craiova,3 2 1 5 2 5,(18)</t>
+  </si>
+  <si>
+    <t>UTA Arad,1 4 0 1 4 1,(11)</t>
+  </si>
+  <si>
+    <t>Academica Clinceni,1-1 5-0 0-1 3-2 1-1 5-0</t>
+  </si>
+  <si>
+    <t>CFR Cluj,4-1 1-0 1-0 0-1 2-1 2-0</t>
+  </si>
+  <si>
+    <t>Chindia Targoviste,2-1 0-1 2-0 0-0 0-1 0-0</t>
+  </si>
+  <si>
+    <t>Din. Bucuresti,0-2 6-0 1-2 5-0 2-2 2-1</t>
+  </si>
+  <si>
+    <t>Farul Constanta,1-1 5-0 2-0 2-1 1-0 2-1</t>
+  </si>
+  <si>
+    <t>FC Arges,0-2 1-0 0-1 0-0 0-0 2-1</t>
+  </si>
+  <si>
+    <t>FC Botosani,1-1 1-0 1-2 1-1 1-1 0-0</t>
+  </si>
+  <si>
+    <t>FC Rapid Bucuresti,1-2 2-2 1-2 0-1 2-2 2-0</t>
+  </si>
+  <si>
+    <t>FC Steaua Bucuresti,4-1 6-0 0-1 3-2 0-1 3-0</t>
+  </si>
+  <si>
+    <t>FC Voluntari,2-1 1-2 4-0 0-1 1-0 1-2</t>
+  </si>
+  <si>
+    <t>Gaz Metan Medias,0-1 1-2 1-2 0-0 2-1 2-1</t>
+  </si>
+  <si>
+    <t>Mioveni,1-1 0-1 4-0 2-1 0-0 3-0</t>
+  </si>
+  <si>
+    <t>Sepsi Sf. Gheorghe,1-1 1-1 0-0 0-0 2-2 1-2</t>
+  </si>
+  <si>
+    <t>U Craiova 1948,1-1 1-0 0-1 1-1 0-2 1-0</t>
+  </si>
+  <si>
+    <t>Univ. Craiova,1-2 1-1 1-0 5-0 0-2 5-0</t>
+  </si>
+  <si>
+    <t>UTA Arad,0-1 2-2 0-0 0-1 2-2 1-0</t>
+  </si>
+  <si>
+    <t>Academica Clinceni,0 -5 -1 -1 0 -5,(-12)</t>
+  </si>
+  <si>
+    <t>CFR Cluj,3 -1 1 1 1 -2,(3)</t>
+  </si>
+  <si>
+    <t>Chindia Targoviste,-1 1 2 0 -1 0,(1)</t>
+  </si>
+  <si>
+    <t>Din. Bucuresti,-2 -6 -1 -5 0 -1,(-15)</t>
+  </si>
+  <si>
+    <t>Farul Constanta,0 5 -2 1 -1 -1,(2)</t>
+  </si>
+  <si>
+    <t>FC Arges,2 1 1 0 0 1,(5)</t>
+  </si>
+  <si>
+    <t>FC Botosani,0 1 1 0 0 0,(2)</t>
+  </si>
+  <si>
+    <t>FC Rapid Bucuresti,-1 0 -1 -1 0 2,(-1)</t>
+  </si>
+  <si>
+    <t>FC Steaua Bucuresti,-3 6 1 1 1 3,(9)</t>
+  </si>
+  <si>
+    <t>FC Voluntari,1 1 4 1 1 1,(9)</t>
+  </si>
+  <si>
+    <t>Gaz Metan Medias,-1 -1 1 0 -1 1,(-1)</t>
+  </si>
+  <si>
+    <t>Mioveni,0 -1 -4 -1 0 -3,(-9)</t>
+  </si>
+  <si>
+    <t>Sepsi Sf. Gheorghe,0 0 0 0 0 -1,(-1)</t>
+  </si>
+  <si>
+    <t>U Craiova 1948,0 -1 -1 0 -2 -1,(-5)</t>
+  </si>
+  <si>
+    <t>Univ. Craiova,1 0 -1 5 2 5,(12)</t>
+  </si>
+  <si>
+    <t>UTA Arad,1 0 0 -1 0 1,(1)</t>
+  </si>
+  <si>
+    <t>Academica Clinceni,Mioveni(12) Farul Constanta(8) FC Arges(9) FC Steaua Bucuresti(2) FC Botosani(4) Univ. Craiova(5)</t>
+  </si>
+  <si>
+    <t>CFR Cluj,FC Steaua Bucuresti(2) FC Botosani(4) Univ. Craiova(5) UTA Arad(7) Gaz Metan Medias(11) FC Rapid Bucuresti(6)</t>
+  </si>
+  <si>
+    <t>Chindia Targoviste,FC Voluntari(3) Mioveni(12) Farul Constanta(8) FC Arges(9) FC Steaua Bucuresti(2) FC Botosani(4)</t>
+  </si>
+  <si>
+    <t>Din. Bucuresti,FC Arges(9) FC Steaua Bucuresti(2) FC Botosani(4) Univ. Craiova(5) UTA Arad(7) Gaz Metan Medias(11)</t>
+  </si>
+  <si>
+    <t>Farul Constanta,U Craiova 1948(14) Academica Clinceni(16) Chindia Targoviste(10) Mioveni(12) FC Voluntari(3) FC Arges(9)</t>
+  </si>
+  <si>
+    <t>FC Arges,Din. Bucuresti(15) U Craiova 1948(14) Academica Clinceni(16) Chindia Targoviste(10) Mioveni(12) Farul Constanta(8)</t>
+  </si>
+  <si>
+    <t>FC Botosani,Sepsi Sf. Gheorghe(13) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(14) Academica Clinceni(16) Chindia Targoviste(10)</t>
+  </si>
+  <si>
+    <t>FC Rapid Bucuresti,Univ. Craiova(5) UTA Arad(7) Gaz Metan Medias(11) FC Voluntari(3) Sepsi Sf. Gheorghe(13) CFR Cluj(1)</t>
+  </si>
+  <si>
+    <t>FC Steaua Bucuresti,CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(14) Academica Clinceni(16) Chindia Targoviste(10) Mioveni(12)</t>
+  </si>
+  <si>
+    <t>FC Voluntari,Chindia Targoviste(10) Gaz Metan Medias(11) Mioveni(12) FC Rapid Bucuresti(6) Farul Constanta(8) Sepsi Sf. Gheorghe(13)</t>
+  </si>
+  <si>
+    <t>Gaz Metan Medias,UTA Arad(7) FC Voluntari(3) FC Rapid Bucuresti(6) Sepsi Sf. Gheorghe(13) CFR Cluj(1) Din. Bucuresti(15)</t>
+  </si>
+  <si>
+    <t>Mioveni,Academica Clinceni(16) Chindia Targoviste(10) FC Voluntari(3) Farul Constanta(8) FC Arges(9) FC Steaua Bucuresti(2)</t>
+  </si>
+  <si>
+    <t>Sepsi Sf. Gheorghe,FC Botosani(4) Univ. Craiova(5) UTA Arad(7) Gaz Metan Medias(11) FC Rapid Bucuresti(6) FC Voluntari(3)</t>
+  </si>
+  <si>
+    <t>U Craiova 1948,Farul Constanta(8) FC Arges(9) FC Steaua Bucuresti(2) FC Botosani(4) Univ. Craiova(5) UTA Arad(7)</t>
+  </si>
+  <si>
+    <t>Univ. Craiova,FC Rapid Bucuresti(6) Sepsi Sf. Gheorghe(13) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(14) Academica Clinceni(16)</t>
+  </si>
+  <si>
+    <t>UTA Arad,Gaz Metan Medias(11) FC Rapid Bucuresti(6) Sepsi Sf. Gheorghe(13) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(14)</t>
   </si>
   <si>
     <t>rou_division</t>

--- a/ROU.xlsx
+++ b/ROU.xlsx
@@ -533,340 +533,340 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Academica Clinceni,L L L L D D L L L D L L</t>
-  </si>
-  <si>
-    <t>CFR Cluj,W W W W W W L W W W L W</t>
-  </si>
-  <si>
-    <t>Chindia Targoviste,D L W D D L W W D L D L</t>
-  </si>
-  <si>
-    <t>Din. Bucuresti,L W L L L L L L L D L D</t>
-  </si>
-  <si>
-    <t>Farul Constanta,D W D W L W D W L W L L</t>
-  </si>
-  <si>
-    <t>FC Arges,L D L W L W W W D D W W</t>
-  </si>
-  <si>
-    <t>FC Botosani,W W W W L D W W D D D D</t>
-  </si>
-  <si>
-    <t>FC Rapid Bucuresti,W D W W W L D L L D W D</t>
-  </si>
-  <si>
-    <t>FC Steaua Bucuresti,D W D W L D L W W W W W</t>
-  </si>
-  <si>
-    <t>FC Voluntari,L W L W L W W W W W W L</t>
-  </si>
-  <si>
-    <t>Gaz Metan Medias,L D L L L L L W D L W L</t>
-  </si>
-  <si>
-    <t>Mioveni,L W L W W D L L L D L D</t>
-  </si>
-  <si>
-    <t>Sepsi Sf. Gheorghe,D L L L D D D D D D L L</t>
-  </si>
-  <si>
-    <t>U Craiova 1948,W L W D L D L L D L L W</t>
-  </si>
-  <si>
-    <t>Univ. Craiova,L L W L W W D L W W W W</t>
-  </si>
-  <si>
-    <t>UTA Arad,W D L W W W D D L D W W</t>
-  </si>
-  <si>
-    <t>Academica Clinceni,1 1 1 0 2 1 0 0 2 1 0 0,(9)</t>
-  </si>
-  <si>
-    <t>CFR Cluj,2 1 1 1 1 4 0 1 1 2 0 2,(16)</t>
-  </si>
-  <si>
-    <t>Chindia Targoviste,1 0 1 0 2 1 1 2 0 0 0 0,(8)</t>
-  </si>
-  <si>
-    <t>Din. Bucuresti,0 3 0 0 0 0 0 1 0 2 1 1,(8)</t>
-  </si>
-  <si>
-    <t>Farul Constanta,0 2 0 1 0 3 1 5 0 2 0 1,(15)</t>
-  </si>
-  <si>
-    <t>FC Arges,0 2 0 2 0 2 1 1 0 0 2 2,(12)</t>
-  </si>
-  <si>
-    <t>FC Botosani,1 2 2 1 0 1 1 2 1 1 0 1,(13)</t>
-  </si>
-  <si>
-    <t>FC Rapid Bucuresti,2 0 1 1 2 1 2 1 0 2 2 1,(15)</t>
-  </si>
-  <si>
-    <t>FC Steaua Bucuresti,0 4 1 2 0 1 1 6 1 3 1 3,(23)</t>
-  </si>
-  <si>
-    <t>FC Voluntari,0 2 0 1 0 2 2 4 1 1 2 0,(15)</t>
-  </si>
-  <si>
-    <t>Gaz Metan Medias,0 2 1 0 0 0 1 2 0 1 2 0,(9)</t>
-  </si>
-  <si>
-    <t>Mioveni,0 2 0 1 1 1 0 0 1 0 0 1,(7)</t>
-  </si>
-  <si>
-    <t>Sepsi Sf. Gheorghe,1 1 0 0 1 1 1 0 0 2 1 0,(8)</t>
-  </si>
-  <si>
-    <t>U Craiova 1948,1 1 2 0 0 1 0 0 1 0 0 2,(8)</t>
-  </si>
-  <si>
-    <t>Univ. Craiova,1 1 3 0 1 2 1 0 5 2 5 1,(22)</t>
-  </si>
-  <si>
-    <t>UTA Arad,1 1 1 1 2 1 2 0 0 2 1 3,(15)</t>
-  </si>
-  <si>
-    <t>Academica Clinceni,2 3 2 1 2 1 5 1 3 1 5 3,(29)</t>
-  </si>
-  <si>
-    <t>CFR Cluj,1 0 0 0 0 1 1 0 0 1 2 0,(6)</t>
-  </si>
-  <si>
-    <t>Chindia Targoviste,1 1 0 0 2 2 0 0 0 1 0 1,(8)</t>
-  </si>
-  <si>
-    <t>Din. Bucuresti,1 1 1 1 3 2 6 2 5 2 2 1,(27)</t>
-  </si>
-  <si>
-    <t>Farul Constanta,0 0 0 0 1 0 1 0 2 1 1 2,(8)</t>
-  </si>
-  <si>
-    <t>FC Arges,1 2 1 0 1 0 0 0 0 0 1 0,(6)</t>
-  </si>
-  <si>
-    <t>FC Botosani,0 1 1 0 2 1 0 1 1 1 0 1,(9)</t>
-  </si>
-  <si>
-    <t>FC Rapid Bucuresti,0 0 0 0 0 2 2 2 1 2 0 1,(10)</t>
-  </si>
-  <si>
-    <t>FC Steaua Bucuresti,0 1 1 1 1 1 4 0 0 2 0 0,(11)</t>
-  </si>
-  <si>
-    <t>FC Voluntari,1 1 3 0 2 1 1 0 0 0 1 2,(12)</t>
-  </si>
-  <si>
-    <t>Gaz Metan Medias,2 2 2 1 1 1 2 1 0 2 1 2,(17)</t>
-  </si>
-  <si>
-    <t>Mioveni,2 1 1 0 0 1 1 4 2 0 3 1,(16)</t>
-  </si>
-  <si>
-    <t>Sepsi Sf. Gheorghe,1 2 1 2 1 1 1 0 0 2 2 2,(15)</t>
-  </si>
-  <si>
-    <t>U Craiova 1948,0 2 1 0 1 1 1 1 1 2 1 0,(11)</t>
-  </si>
-  <si>
-    <t>Univ. Craiova,4 2 0 1 0 1 1 1 0 0 0 0,(10)</t>
-  </si>
-  <si>
-    <t>UTA Arad,0 1 2 0 0 0 2 0 1 2 0 0,(8)</t>
-  </si>
-  <si>
-    <t>Academica Clinceni,3 4 3 1 4 2 5 1 5 2 5 3,(38)</t>
-  </si>
-  <si>
-    <t>CFR Cluj,3 1 1 1 1 5 1 1 1 3 2 2,(22)</t>
-  </si>
-  <si>
-    <t>Chindia Targoviste,2 1 1 0 4 3 1 2 0 1 0 1,(16)</t>
-  </si>
-  <si>
-    <t>Din. Bucuresti,1 4 1 1 3 2 6 3 5 4 3 2,(35)</t>
-  </si>
-  <si>
-    <t>Farul Constanta,0 2 0 1 1 3 2 5 2 3 1 3,(23)</t>
-  </si>
-  <si>
-    <t>FC Arges,1 4 1 2 1 2 1 1 0 0 3 2,(18)</t>
-  </si>
-  <si>
-    <t>FC Botosani,1 3 3 1 2 2 1 3 2 2 0 2,(22)</t>
-  </si>
-  <si>
-    <t>FC Rapid Bucuresti,2 0 1 1 2 3 4 3 1 4 2 2,(25)</t>
-  </si>
-  <si>
-    <t>FC Steaua Bucuresti,0 5 2 3 1 2 5 6 1 5 1 3,(34)</t>
-  </si>
-  <si>
-    <t>FC Voluntari,1 3 3 1 2 3 3 4 1 1 3 2,(27)</t>
-  </si>
-  <si>
-    <t>Gaz Metan Medias,2 4 3 1 1 1 3 3 0 3 3 2,(26)</t>
-  </si>
-  <si>
-    <t>Mioveni,2 3 1 1 1 2 1 4 3 0 3 2,(23)</t>
-  </si>
-  <si>
-    <t>Sepsi Sf. Gheorghe,2 3 1 2 2 2 2 0 0 4 3 2,(23)</t>
-  </si>
-  <si>
-    <t>U Craiova 1948,1 3 3 0 1 2 1 1 2 2 1 2,(19)</t>
-  </si>
-  <si>
-    <t>Univ. Craiova,5 3 3 1 1 3 2 1 5 2 5 1,(32)</t>
-  </si>
-  <si>
-    <t>UTA Arad,1 2 3 1 2 1 4 0 1 4 1 3,(23)</t>
-  </si>
-  <si>
-    <t>Academica Clinceni,1-2 3-1 1-2 1-0 2-2 1-1 5-0 0-1 3-2 1-1 5-0 0-3</t>
-  </si>
-  <si>
-    <t>CFR Cluj,1-2 1-0 0-1 1-0 0-1 4-1 1-0 1-0 0-1 2-1 2-0 2-0</t>
-  </si>
-  <si>
-    <t>Chindia Targoviste,1-1 1-0 1-0 0-0 2-2 2-1 0-1 2-0 0-0 0-1 0-0 0-1</t>
-  </si>
-  <si>
-    <t>Din. Bucuresti,1-0 3-1 1-0 0-1 3-0 0-2 6-0 1-2 5-0 2-2 2-1 1-1</t>
-  </si>
-  <si>
-    <t>Farul Constanta,0-0 2-0 0-0 1-0 1-0 3-0 1-1 5-0 2-0 2-1 1-0 2-1</t>
-  </si>
-  <si>
-    <t>FC Arges,0-1 2-2 0-1 0-2 0-1 0-2 1-0 0-1 0-0 0-0 2-1 0-2</t>
-  </si>
-  <si>
-    <t>FC Botosani,0-1 1-2 2-1 0-1 0-2 1-1 1-0 1-2 1-1 1-1 0-0 1-1</t>
-  </si>
-  <si>
-    <t>FC Rapid Bucuresti,0-2 0-0 0-1 1-0 0-2 1-2 2-2 1-2 0-1 2-2 2-0 1-1</t>
-  </si>
-  <si>
-    <t>FC Steaua Bucuresti,0-0 4-1 1-1 2-1 1-0 1-1 4-1 6-0 0-1 3-2 0-1 3-0</t>
-  </si>
-  <si>
-    <t>FC Voluntari,0-1 2-1 3-0 1-0 2-0 2-1 1-2 4-0 0-1 1-0 1-2 0-2</t>
-  </si>
-  <si>
-    <t>Gaz Metan Medias,2-0 2-2 2-1 0-1 1-0 0-1 1-2 1-2 0-0 2-1 2-1 2-0</t>
-  </si>
-  <si>
-    <t>Mioveni,0-2 1-2 0-1 0-1 1-0 1-1 0-1 4-0 2-1 0-0 3-0 1-1</t>
-  </si>
-  <si>
-    <t>Sepsi Sf. Gheorghe,1-1 1-2 1-0 0-2 1-1 1-1 1-1 0-0 0-0 2-2 1-2 2-0</t>
-  </si>
-  <si>
-    <t>U Craiova 1948,1-0 2-1 1-2 0-0 1-0 1-1 1-0 0-1 1-1 0-2 1-0 2-0</t>
-  </si>
-  <si>
-    <t>Univ. Craiova,4-1 1-2 3-0 1-0 1-0 1-2 1-1 1-0 5-0 0-2 5-0 0-1</t>
-  </si>
-  <si>
-    <t>UTA Arad,0-1 1-1 2-1 1-0 2-0 0-1 2-2 0-0 0-1 2-2 1-0 0-3</t>
-  </si>
-  <si>
-    <t>Academica Clinceni,-1 -2 -1 -1 0 0 -5 -1 -1 0 -5 -3,(-20)</t>
-  </si>
-  <si>
-    <t>CFR Cluj,1 1 1 1 1 3 -1 1 1 1 -2 2,(10)</t>
-  </si>
-  <si>
-    <t>Chindia Targoviste,0 -1 1 0 0 -1 1 2 0 -1 0 -1,(0)</t>
-  </si>
-  <si>
-    <t>Din. Bucuresti,-1 2 -1 -1 -3 -2 -6 -1 -5 0 -1 0,(-19)</t>
-  </si>
-  <si>
-    <t>Farul Constanta,0 2 0 1 -1 3 0 5 -2 1 -1 -1,(7)</t>
-  </si>
-  <si>
-    <t>FC Arges,-1 0 -1 2 -1 2 1 1 0 0 1 2,(6)</t>
-  </si>
-  <si>
-    <t>FC Botosani,1 1 1 1 -2 0 1 1 0 0 0 0,(4)</t>
-  </si>
-  <si>
-    <t>FC Rapid Bucuresti,2 0 1 1 2 -1 0 -1 -1 0 2 0,(5)</t>
-  </si>
-  <si>
-    <t>FC Steaua Bucuresti,0 3 0 1 -1 0 -3 6 1 1 1 3,(12)</t>
-  </si>
-  <si>
-    <t>FC Voluntari,-1 1 -3 1 -2 1 1 4 1 1 1 -2,(3)</t>
-  </si>
-  <si>
-    <t>Gaz Metan Medias,-2 0 -1 -1 -1 -1 -1 1 0 -1 1 -2,(-8)</t>
-  </si>
-  <si>
-    <t>Mioveni,-2 1 -1 1 1 0 -1 -4 -1 0 -3 0,(-9)</t>
-  </si>
-  <si>
-    <t>Sepsi Sf. Gheorghe,0 -1 -1 -2 0 0 0 0 0 0 -1 -2,(-7)</t>
-  </si>
-  <si>
-    <t>U Craiova 1948,1 -1 1 0 -1 0 -1 -1 0 -2 -1 2,(-3)</t>
-  </si>
-  <si>
-    <t>Univ. Craiova,-3 -1 3 -1 1 1 0 -1 5 2 5 1,(12)</t>
-  </si>
-  <si>
-    <t>UTA Arad,1 0 -1 1 2 1 0 0 -1 0 1 3,(7)</t>
-  </si>
-  <si>
-    <t>Academica Clinceni,CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(12) FC Voluntari(5) Chindia Targoviste(10) Mioveni(11) Farul Constanta(9) FC Arges(8) FC Steaua Bucuresti(4) FC Botosani(3) Univ. Craiova(2) UTA Arad(6)</t>
-  </si>
-  <si>
-    <t>CFR Cluj,Academica Clinceni(16) Chindia Targoviste(10) Mioveni(11) Farul Constanta(9) FC Arges(8) FC Steaua Bucuresti(4) FC Botosani(3) Univ. Craiova(2) UTA Arad(6) Gaz Metan Medias(13) FC Rapid Bucuresti(7) Sepsi Sf. Gheorghe(14)</t>
-  </si>
-  <si>
-    <t>Chindia Targoviste,Sepsi Sf. Gheorghe(14) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(12) Academica Clinceni(16) FC Voluntari(5) Mioveni(11) Farul Constanta(9) FC Arges(8) FC Steaua Bucuresti(4) FC Botosani(3) Univ. Craiova(2)</t>
-  </si>
-  <si>
-    <t>Din. Bucuresti,U Craiova 1948(12) Academica Clinceni(16) Chindia Targoviste(10) Mioveni(11) Farul Constanta(9) FC Arges(8) FC Steaua Bucuresti(4) FC Botosani(3) Univ. Craiova(2) UTA Arad(6) Gaz Metan Medias(13) FC Rapid Bucuresti(7)</t>
-  </si>
-  <si>
-    <t>Farul Constanta,UTA Arad(6) Gaz Metan Medias(13) FC Rapid Bucuresti(7) Sepsi Sf. Gheorghe(14) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(12) Academica Clinceni(16) Chindia Targoviste(10) Mioveni(11) FC Voluntari(5) FC Arges(8)</t>
-  </si>
-  <si>
-    <t>FC Arges,UTA Arad(6) Gaz Metan Medias(13) FC Rapid Bucuresti(7) Sepsi Sf. Gheorghe(14) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(12) Academica Clinceni(16) Chindia Targoviste(10) Mioveni(11) Farul Constanta(9) FC Voluntari(5)</t>
-  </si>
-  <si>
-    <t>FC Botosani,FC Voluntari(5) Univ. Craiova(2) UTA Arad(6) Gaz Metan Medias(13) FC Rapid Bucuresti(7) Sepsi Sf. Gheorghe(14) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(12) Academica Clinceni(16) Chindia Targoviste(10) Mioveni(11)</t>
-  </si>
-  <si>
-    <t>FC Rapid Bucuresti,Mioveni(11) Farul Constanta(9) FC Arges(8) FC Steaua Bucuresti(4) FC Botosani(3) Univ. Craiova(2) UTA Arad(6) Gaz Metan Medias(13) FC Voluntari(5) Sepsi Sf. Gheorghe(14) CFR Cluj(1) Din. Bucuresti(15)</t>
-  </si>
-  <si>
-    <t>FC Steaua Bucuresti,FC Botosani(3) Univ. Craiova(2) UTA Arad(6) Gaz Metan Medias(13) FC Rapid Bucuresti(7) Sepsi Sf. Gheorghe(14) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(12) Academica Clinceni(16) Chindia Targoviste(10) Mioveni(11)</t>
-  </si>
-  <si>
-    <t>FC Voluntari,FC Botosani(3) U Craiova 1948(12) Univ. Craiova(2) Academica Clinceni(16) UTA Arad(6) Chindia Targoviste(10) Gaz Metan Medias(13) Mioveni(11) FC Rapid Bucuresti(7) Farul Constanta(9) Sepsi Sf. Gheorghe(14) FC Arges(8)</t>
-  </si>
-  <si>
-    <t>Gaz Metan Medias,Farul Constanta(9) FC Arges(8) FC Steaua Bucuresti(4) FC Botosani(3) Univ. Craiova(2) UTA Arad(6) FC Voluntari(5) FC Rapid Bucuresti(7) Sepsi Sf. Gheorghe(14) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(12)</t>
-  </si>
-  <si>
-    <t>Mioveni,FC Rapid Bucuresti(7) Sepsi Sf. Gheorghe(14) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(12) Academica Clinceni(16) Chindia Targoviste(10) FC Voluntari(5) Farul Constanta(9) FC Arges(8) FC Steaua Bucuresti(4) FC Botosani(3)</t>
-  </si>
-  <si>
-    <t>Sepsi Sf. Gheorghe,Chindia Targoviste(10) Mioveni(11) Farul Constanta(9) FC Arges(8) FC Steaua Bucuresti(4) FC Botosani(3) Univ. Craiova(2) UTA Arad(6) Gaz Metan Medias(13) FC Rapid Bucuresti(7) FC Voluntari(5) CFR Cluj(1)</t>
-  </si>
-  <si>
-    <t>U Craiova 1948,Din. Bucuresti(15) FC Voluntari(5) Academica Clinceni(16) Chindia Targoviste(10) Mioveni(11) Farul Constanta(9) FC Arges(8) FC Steaua Bucuresti(4) FC Botosani(3) Univ. Craiova(2) UTA Arad(6) Gaz Metan Medias(13)</t>
-  </si>
-  <si>
-    <t>Univ. Craiova,FC Steaua Bucuresti(4) FC Botosani(3) FC Voluntari(5) UTA Arad(6) Gaz Metan Medias(13) FC Rapid Bucuresti(7) Sepsi Sf. Gheorghe(14) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(12) Academica Clinceni(16) Chindia Targoviste(10)</t>
-  </si>
-  <si>
-    <t>UTA Arad,FC Arges(8) FC Steaua Bucuresti(4) FC Botosani(3) Univ. Craiova(2) FC Voluntari(5) Gaz Metan Medias(13) FC Rapid Bucuresti(7) Sepsi Sf. Gheorghe(14) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(12) Academica Clinceni(16)</t>
+    <t>Academica Clinceni,L L L D L L</t>
+  </si>
+  <si>
+    <t>CFR Cluj,L W W W L W</t>
+  </si>
+  <si>
+    <t>Chindia Targoviste,W W D L D L</t>
+  </si>
+  <si>
+    <t>Din. Bucuresti,L L L D L D</t>
+  </si>
+  <si>
+    <t>Farul Constanta,D W L W L L</t>
+  </si>
+  <si>
+    <t>FC Arges,W W D D W W</t>
+  </si>
+  <si>
+    <t>FC Botosani,W W D D D D</t>
+  </si>
+  <si>
+    <t>FC Rapid Bucuresti,D L L D W D</t>
+  </si>
+  <si>
+    <t>FC Steaua Bucuresti,L W W W W W</t>
+  </si>
+  <si>
+    <t>FC Voluntari,W W W W W L</t>
+  </si>
+  <si>
+    <t>Gaz Metan Medias,L W D L W L</t>
+  </si>
+  <si>
+    <t>Mioveni,L L L D L D</t>
+  </si>
+  <si>
+    <t>Sepsi Sf. Gheorghe,D D D D L L</t>
+  </si>
+  <si>
+    <t>U Craiova 1948,L L D L L W</t>
+  </si>
+  <si>
+    <t>Univ. Craiova,D L W W W W</t>
+  </si>
+  <si>
+    <t>UTA Arad,D D L D W W</t>
+  </si>
+  <si>
+    <t>Academica Clinceni,0 0 2 1 0 0,(3)</t>
+  </si>
+  <si>
+    <t>CFR Cluj,0 1 1 2 0 2,(6)</t>
+  </si>
+  <si>
+    <t>Chindia Targoviste,1 2 0 0 0 0,(3)</t>
+  </si>
+  <si>
+    <t>Din. Bucuresti,0 1 0 2 1 1,(5)</t>
+  </si>
+  <si>
+    <t>Farul Constanta,1 5 0 2 0 1,(9)</t>
+  </si>
+  <si>
+    <t>FC Arges,1 1 0 0 2 2,(6)</t>
+  </si>
+  <si>
+    <t>FC Botosani,1 2 1 1 0 1,(6)</t>
+  </si>
+  <si>
+    <t>FC Rapid Bucuresti,2 1 0 2 2 1,(8)</t>
+  </si>
+  <si>
+    <t>FC Steaua Bucuresti,1 6 1 3 1 3,(15)</t>
+  </si>
+  <si>
+    <t>FC Voluntari,2 4 1 1 2 0,(10)</t>
+  </si>
+  <si>
+    <t>Gaz Metan Medias,1 2 0 1 2 0,(6)</t>
+  </si>
+  <si>
+    <t>Mioveni,0 0 1 0 0 1,(2)</t>
+  </si>
+  <si>
+    <t>Sepsi Sf. Gheorghe,1 0 0 2 1 0,(4)</t>
+  </si>
+  <si>
+    <t>U Craiova 1948,0 0 1 0 0 2,(3)</t>
+  </si>
+  <si>
+    <t>Univ. Craiova,1 0 5 2 5 1,(14)</t>
+  </si>
+  <si>
+    <t>UTA Arad,2 0 0 2 1 3,(8)</t>
+  </si>
+  <si>
+    <t>Academica Clinceni,5 1 3 1 5 3,(18)</t>
+  </si>
+  <si>
+    <t>CFR Cluj,1 0 0 1 2 0,(4)</t>
+  </si>
+  <si>
+    <t>Chindia Targoviste,0 0 0 1 0 1,(2)</t>
+  </si>
+  <si>
+    <t>Din. Bucuresti,6 2 5 2 2 1,(18)</t>
+  </si>
+  <si>
+    <t>Farul Constanta,1 0 2 1 1 2,(7)</t>
+  </si>
+  <si>
+    <t>FC Arges,0 0 0 0 1 0,(1)</t>
+  </si>
+  <si>
+    <t>FC Botosani,0 1 1 1 0 1,(4)</t>
+  </si>
+  <si>
+    <t>FC Rapid Bucuresti,2 2 1 2 0 1,(8)</t>
+  </si>
+  <si>
+    <t>FC Steaua Bucuresti,4 0 0 2 0 0,(6)</t>
+  </si>
+  <si>
+    <t>FC Voluntari,1 0 0 0 1 2,(4)</t>
+  </si>
+  <si>
+    <t>Gaz Metan Medias,2 1 0 2 1 2,(8)</t>
+  </si>
+  <si>
+    <t>Mioveni,1 4 2 0 3 1,(11)</t>
+  </si>
+  <si>
+    <t>Sepsi Sf. Gheorghe,1 0 0 2 2 2,(7)</t>
+  </si>
+  <si>
+    <t>U Craiova 1948,1 1 1 2 1 0,(6)</t>
+  </si>
+  <si>
+    <t>Univ. Craiova,1 1 0 0 0 0,(2)</t>
+  </si>
+  <si>
+    <t>UTA Arad,2 0 1 2 0 0,(5)</t>
+  </si>
+  <si>
+    <t>Academica Clinceni,5 1 5 2 5 3,(21)</t>
+  </si>
+  <si>
+    <t>CFR Cluj,1 1 1 3 2 2,(10)</t>
+  </si>
+  <si>
+    <t>Chindia Targoviste,1 2 0 1 0 1,(5)</t>
+  </si>
+  <si>
+    <t>Din. Bucuresti,6 3 5 4 3 2,(23)</t>
+  </si>
+  <si>
+    <t>Farul Constanta,2 5 2 3 1 3,(16)</t>
+  </si>
+  <si>
+    <t>FC Arges,1 1 0 0 3 2,(7)</t>
+  </si>
+  <si>
+    <t>FC Botosani,1 3 2 2 0 2,(10)</t>
+  </si>
+  <si>
+    <t>FC Rapid Bucuresti,4 3 1 4 2 2,(16)</t>
+  </si>
+  <si>
+    <t>FC Steaua Bucuresti,5 6 1 5 1 3,(21)</t>
+  </si>
+  <si>
+    <t>FC Voluntari,3 4 1 1 3 2,(14)</t>
+  </si>
+  <si>
+    <t>Gaz Metan Medias,3 3 0 3 3 2,(14)</t>
+  </si>
+  <si>
+    <t>Mioveni,1 4 3 0 3 2,(13)</t>
+  </si>
+  <si>
+    <t>Sepsi Sf. Gheorghe,2 0 0 4 3 2,(11)</t>
+  </si>
+  <si>
+    <t>U Craiova 1948,1 1 2 2 1 2,(9)</t>
+  </si>
+  <si>
+    <t>Univ. Craiova,2 1 5 2 5 1,(16)</t>
+  </si>
+  <si>
+    <t>UTA Arad,4 0 1 4 1 3,(13)</t>
+  </si>
+  <si>
+    <t>Academica Clinceni,5-0 0-1 3-2 1-1 5-0 0-3</t>
+  </si>
+  <si>
+    <t>CFR Cluj,1-0 1-0 0-1 2-1 2-0 2-0</t>
+  </si>
+  <si>
+    <t>Chindia Targoviste,0-1 2-0 0-0 0-1 0-0 0-1</t>
+  </si>
+  <si>
+    <t>Din. Bucuresti,6-0 1-2 5-0 2-2 2-1 1-1</t>
+  </si>
+  <si>
+    <t>Farul Constanta,1-1 5-0 2-0 2-1 1-0 2-1</t>
+  </si>
+  <si>
+    <t>FC Arges,1-0 0-1 0-0 0-0 2-1 0-2</t>
+  </si>
+  <si>
+    <t>FC Botosani,1-0 1-2 1-1 1-1 0-0 1-1</t>
+  </si>
+  <si>
+    <t>FC Rapid Bucuresti,2-2 1-2 0-1 2-2 2-0 1-1</t>
+  </si>
+  <si>
+    <t>FC Steaua Bucuresti,4-1 6-0 0-1 3-2 0-1 3-0</t>
+  </si>
+  <si>
+    <t>FC Voluntari,1-2 4-0 0-1 1-0 1-2 0-2</t>
+  </si>
+  <si>
+    <t>Gaz Metan Medias,1-2 1-2 0-0 2-1 2-1 2-0</t>
+  </si>
+  <si>
+    <t>Mioveni,0-1 4-0 2-1 0-0 3-0 1-1</t>
+  </si>
+  <si>
+    <t>Sepsi Sf. Gheorghe,1-1 0-0 0-0 2-2 1-2 2-0</t>
+  </si>
+  <si>
+    <t>U Craiova 1948,1-0 0-1 1-1 0-2 1-0 2-0</t>
+  </si>
+  <si>
+    <t>Univ. Craiova,1-1 1-0 5-0 0-2 5-0 0-1</t>
+  </si>
+  <si>
+    <t>UTA Arad,2-2 0-0 0-1 2-2 1-0 0-3</t>
+  </si>
+  <si>
+    <t>Academica Clinceni,-5 -1 -1 0 -5 -3,(-15)</t>
+  </si>
+  <si>
+    <t>CFR Cluj,-1 1 1 1 -2 2,(2)</t>
+  </si>
+  <si>
+    <t>Chindia Targoviste,1 2 0 -1 0 -1,(1)</t>
+  </si>
+  <si>
+    <t>Din. Bucuresti,-6 -1 -5 0 -1 0,(-13)</t>
+  </si>
+  <si>
+    <t>Farul Constanta,0 5 -2 1 -1 -1,(2)</t>
+  </si>
+  <si>
+    <t>FC Arges,1 1 0 0 1 2,(5)</t>
+  </si>
+  <si>
+    <t>FC Botosani,1 1 0 0 0 0,(2)</t>
+  </si>
+  <si>
+    <t>FC Rapid Bucuresti,0 -1 -1 0 2 0,(0)</t>
+  </si>
+  <si>
+    <t>FC Steaua Bucuresti,-3 6 1 1 1 3,(9)</t>
+  </si>
+  <si>
+    <t>FC Voluntari,1 4 1 1 1 -2,(6)</t>
+  </si>
+  <si>
+    <t>Gaz Metan Medias,-1 1 0 -1 1 -2,(-2)</t>
+  </si>
+  <si>
+    <t>Mioveni,-1 -4 -1 0 -3 0,(-9)</t>
+  </si>
+  <si>
+    <t>Sepsi Sf. Gheorghe,0 0 0 0 -1 -2,(-3)</t>
+  </si>
+  <si>
+    <t>U Craiova 1948,-1 -1 0 -2 -1 2,(-3)</t>
+  </si>
+  <si>
+    <t>Univ. Craiova,0 -1 5 2 5 1,(12)</t>
+  </si>
+  <si>
+    <t>UTA Arad,0 0 -1 0 1 3,(3)</t>
+  </si>
+  <si>
+    <t>Academica Clinceni,Farul Constanta(9) FC Arges(8) FC Steaua Bucuresti(4) FC Botosani(3) Univ. Craiova(2) UTA Arad(6)</t>
+  </si>
+  <si>
+    <t>CFR Cluj,FC Botosani(3) Univ. Craiova(2) UTA Arad(6) Gaz Metan Medias(13) FC Rapid Bucuresti(7) Sepsi Sf. Gheorghe(14)</t>
+  </si>
+  <si>
+    <t>Chindia Targoviste,Mioveni(11) Farul Constanta(9) FC Arges(8) FC Steaua Bucuresti(4) FC Botosani(3) Univ. Craiova(2)</t>
+  </si>
+  <si>
+    <t>Din. Bucuresti,FC Steaua Bucuresti(4) FC Botosani(3) Univ. Craiova(2) UTA Arad(6) Gaz Metan Medias(13) FC Rapid Bucuresti(7)</t>
+  </si>
+  <si>
+    <t>Farul Constanta,U Craiova 1948(12) Academica Clinceni(16) Chindia Targoviste(10) Mioveni(11) FC Voluntari(5) FC Arges(8)</t>
+  </si>
+  <si>
+    <t>FC Arges,U Craiova 1948(12) Academica Clinceni(16) Chindia Targoviste(10) Mioveni(11) Farul Constanta(9) FC Voluntari(5)</t>
+  </si>
+  <si>
+    <t>FC Botosani,CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(12) Academica Clinceni(16) Chindia Targoviste(10) Mioveni(11)</t>
+  </si>
+  <si>
+    <t>FC Rapid Bucuresti,UTA Arad(6) Gaz Metan Medias(13) FC Voluntari(5) Sepsi Sf. Gheorghe(14) CFR Cluj(1) Din. Bucuresti(15)</t>
+  </si>
+  <si>
+    <t>FC Steaua Bucuresti,CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(12) Academica Clinceni(16) Chindia Targoviste(10) Mioveni(11)</t>
+  </si>
+  <si>
+    <t>FC Voluntari,Gaz Metan Medias(13) Mioveni(11) FC Rapid Bucuresti(7) Farul Constanta(9) Sepsi Sf. Gheorghe(14) FC Arges(8)</t>
+  </si>
+  <si>
+    <t>Gaz Metan Medias,FC Voluntari(5) FC Rapid Bucuresti(7) Sepsi Sf. Gheorghe(14) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(12)</t>
+  </si>
+  <si>
+    <t>Mioveni,Chindia Targoviste(10) FC Voluntari(5) Farul Constanta(9) FC Arges(8) FC Steaua Bucuresti(4) FC Botosani(3)</t>
+  </si>
+  <si>
+    <t>Sepsi Sf. Gheorghe,Univ. Craiova(2) UTA Arad(6) Gaz Metan Medias(13) FC Rapid Bucuresti(7) FC Voluntari(5) CFR Cluj(1)</t>
+  </si>
+  <si>
+    <t>U Craiova 1948,FC Arges(8) FC Steaua Bucuresti(4) FC Botosani(3) Univ. Craiova(2) UTA Arad(6) Gaz Metan Medias(13)</t>
+  </si>
+  <si>
+    <t>Univ. Craiova,Sepsi Sf. Gheorghe(14) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(12) Academica Clinceni(16) Chindia Targoviste(10)</t>
+  </si>
+  <si>
+    <t>UTA Arad,FC Rapid Bucuresti(7) Sepsi Sf. Gheorghe(14) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(12) Academica Clinceni(16)</t>
   </si>
   <si>
     <t>rou_division</t>

--- a/ROU.xlsx
+++ b/ROU.xlsx
@@ -578,340 +578,340 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Academica Clinceni,L L L L L D D L L L D L L D L</t>
-  </si>
-  <si>
-    <t>CFR Cluj,W W W W W W W L W W W L W W W</t>
-  </si>
-  <si>
-    <t>Chindia Targoviste,L D L W D D L W W D L D L W L</t>
-  </si>
-  <si>
-    <t>Din. Bucuresti,W L W L L L L L L L D L D L L</t>
-  </si>
-  <si>
-    <t>Farul Constanta,D W D W L W D W L W L L W L W</t>
-  </si>
-  <si>
-    <t>FC Arges,L L D L W L W W W D D W W L L</t>
-  </si>
-  <si>
-    <t>FC Botosani,D W W W W L D W W D D D D L W</t>
-  </si>
-  <si>
-    <t>FC Rapid Bucuresti,W W D W W W L D L L D W D D W</t>
-  </si>
-  <si>
-    <t>FC Steaua Bucuresti,D W D W L D L W W W W W W W D</t>
-  </si>
-  <si>
-    <t>FC Voluntari,L L W L W L W W W W W W L L D</t>
-  </si>
-  <si>
-    <t>Gaz Metan Medias,W L D L L L L L W D L W L D W</t>
-  </si>
-  <si>
-    <t>Mioveni,L L W L W W D L L L D L D L D</t>
-  </si>
-  <si>
-    <t>Sepsi Sf. Gheorghe,W D L L L D D D D D D L L W D</t>
-  </si>
-  <si>
-    <t>U Craiova 1948,L W L W D L D L L D L L W D D</t>
-  </si>
-  <si>
-    <t>Univ. Craiova,W L L W L W W D L W W W W W L</t>
-  </si>
-  <si>
-    <t>UTA Arad,D W D L W W W D D L D W W L D</t>
-  </si>
-  <si>
-    <t>Academica Clinceni,0 1 1 1 0 2 1 0 0 2 1 0 0 1 2,(12)</t>
-  </si>
-  <si>
-    <t>CFR Cluj,3 2 1 1 1 1 4 0 1 1 2 0 2 1 3,(23)</t>
-  </si>
-  <si>
-    <t>Chindia Targoviste,0 1 0 1 0 2 1 1 2 0 0 0 0 2 0,(10)</t>
-  </si>
-  <si>
-    <t>Din. Bucuresti,3 0 3 0 0 0 0 0 1 0 2 1 1 1 0,(12)</t>
-  </si>
-  <si>
-    <t>Farul Constanta,0 2 0 1 0 3 1 5 0 2 0 1 2 0 1,(18)</t>
-  </si>
-  <si>
-    <t>FC Arges,0 0 2 0 2 0 2 1 1 0 0 2 2 1 0,(13)</t>
-  </si>
-  <si>
-    <t>FC Botosani,0 1 2 2 1 0 1 1 2 1 1 0 1 0 1,(14)</t>
-  </si>
-  <si>
-    <t>FC Rapid Bucuresti,1 2 0 1 1 2 1 2 1 0 2 2 1 0 3,(19)</t>
-  </si>
-  <si>
-    <t>FC Steaua Bucuresti,0 4 1 2 0 1 1 6 1 3 1 3 2 1 0,(26)</t>
-  </si>
-  <si>
-    <t>FC Voluntari,2 0 2 0 1 0 2 2 4 1 1 2 0 0 0,(17)</t>
-  </si>
-  <si>
-    <t>Gaz Metan Medias,1 0 2 1 0 0 0 1 2 0 1 2 0 1 1,(12)</t>
-  </si>
-  <si>
-    <t>Mioveni,0 0 2 0 1 1 1 0 0 1 0 0 1 2 0,(9)</t>
-  </si>
-  <si>
-    <t>Sepsi Sf. Gheorghe,2 1 1 0 0 1 1 1 0 0 2 1 0 4 1,(15)</t>
-  </si>
-  <si>
-    <t>U Craiova 1948,2 1 1 2 0 0 1 0 0 1 0 0 2 0 1,(11)</t>
-  </si>
-  <si>
-    <t>Univ. Craiova,1 1 1 3 0 1 2 1 0 5 2 5 1 5 0,(28)</t>
-  </si>
-  <si>
-    <t>UTA Arad,0 1 1 1 1 2 1 2 0 0 2 1 3 0 0,(15)</t>
-  </si>
-  <si>
-    <t>Academica Clinceni,2 2 3 2 1 2 1 5 1 3 1 5 3 1 3,(35)</t>
-  </si>
-  <si>
-    <t>CFR Cluj,2 1 0 0 0 0 1 1 0 0 1 2 0 0 0,(8)</t>
-  </si>
-  <si>
-    <t>Chindia Targoviste,1 1 1 0 0 2 2 0 0 0 1 0 1 0 1,(10)</t>
-  </si>
-  <si>
-    <t>Din. Bucuresti,2 1 1 1 1 3 2 6 2 5 2 2 1 4 3,(36)</t>
-  </si>
-  <si>
-    <t>Farul Constanta,0 0 0 0 1 0 1 0 2 1 1 2 0 1 0,(9)</t>
-  </si>
-  <si>
-    <t>FC Arges,1 1 2 1 0 1 0 0 0 0 0 1 0 2 1,(10)</t>
-  </si>
-  <si>
-    <t>FC Botosani,0 0 1 1 0 2 1 0 1 1 1 0 1 2 0,(11)</t>
-  </si>
-  <si>
-    <t>FC Rapid Bucuresti,0 0 0 0 0 0 2 2 2 1 2 0 1 0 2,(12)</t>
-  </si>
-  <si>
-    <t>FC Steaua Bucuresti,0 1 1 1 1 1 4 0 0 2 0 0 1 0 0,(12)</t>
-  </si>
-  <si>
-    <t>FC Voluntari,3 1 1 3 0 2 1 1 0 0 0 1 2 1 0,(16)</t>
-  </si>
-  <si>
-    <t>Gaz Metan Medias,0 2 2 2 1 1 1 2 1 0 2 1 2 1 0,(18)</t>
-  </si>
-  <si>
-    <t>Mioveni,1 2 1 1 0 0 1 1 4 2 0 3 1 5 0,(22)</t>
-  </si>
-  <si>
-    <t>Sepsi Sf. Gheorghe,0 1 2 1 2 1 1 1 0 0 2 2 2 1 1,(17)</t>
-  </si>
-  <si>
-    <t>U Craiova 1948,3 0 2 1 0 1 1 1 1 1 2 1 0 0 1,(15)</t>
-  </si>
-  <si>
-    <t>Univ. Craiova,0 4 2 0 1 0 1 1 1 0 0 0 0 2 1,(13)</t>
-  </si>
-  <si>
-    <t>UTA Arad,0 0 1 2 0 0 0 2 0 1 2 0 0 2 0,(10)</t>
-  </si>
-  <si>
-    <t>Academica Clinceni,2 3 4 3 1 4 2 5 1 5 2 5 3 2 5,(47)</t>
-  </si>
-  <si>
-    <t>CFR Cluj,5 3 1 1 1 1 5 1 1 1 3 2 2 1 3,(31)</t>
-  </si>
-  <si>
-    <t>Chindia Targoviste,1 2 1 1 0 4 3 1 2 0 1 0 1 2 1,(20)</t>
-  </si>
-  <si>
-    <t>Din. Bucuresti,5 1 4 1 1 3 2 6 3 5 4 3 2 5 3,(48)</t>
-  </si>
-  <si>
-    <t>Farul Constanta,0 2 0 1 1 3 2 5 2 3 1 3 2 1 1,(27)</t>
-  </si>
-  <si>
-    <t>FC Arges,1 1 4 1 2 1 2 1 1 0 0 3 2 3 1,(23)</t>
-  </si>
-  <si>
-    <t>FC Botosani,0 1 3 3 1 2 2 1 3 2 2 0 2 2 1,(25)</t>
-  </si>
-  <si>
-    <t>FC Rapid Bucuresti,1 2 0 1 1 2 3 4 3 1 4 2 2 0 5,(31)</t>
-  </si>
-  <si>
-    <t>FC Steaua Bucuresti,0 5 2 3 1 2 5 6 1 5 1 3 3 1 0,(38)</t>
-  </si>
-  <si>
-    <t>FC Voluntari,5 1 3 3 1 2 3 3 4 1 1 3 2 1 0,(33)</t>
-  </si>
-  <si>
-    <t>Gaz Metan Medias,1 2 4 3 1 1 1 3 3 0 3 3 2 2 1,(30)</t>
-  </si>
-  <si>
-    <t>Mioveni,1 2 3 1 1 1 2 1 4 3 0 3 2 7 0,(31)</t>
-  </si>
-  <si>
-    <t>Sepsi Sf. Gheorghe,2 2 3 1 2 2 2 2 0 0 4 3 2 5 2,(32)</t>
-  </si>
-  <si>
-    <t>U Craiova 1948,5 1 3 3 0 1 2 1 1 2 2 1 2 0 2,(26)</t>
-  </si>
-  <si>
-    <t>Univ. Craiova,1 5 3 3 1 1 3 2 1 5 2 5 1 7 1,(41)</t>
-  </si>
-  <si>
-    <t>UTA Arad,0 1 2 3 1 2 1 4 0 1 4 1 3 2 0,(25)</t>
-  </si>
-  <si>
-    <t>Academica Clinceni,2-0 1-2 3-1 1-2 1-0 2-2 1-1 5-0 0-1 3-2 1-1 5-0 0-3 1-1 2-3</t>
-  </si>
-  <si>
-    <t>CFR Cluj,3-2 1-2 1-0 0-1 1-0 0-1 4-1 1-0 1-0 0-1 2-1 2-0 2-0 1-0 0-3</t>
-  </si>
-  <si>
-    <t>Chindia Targoviste,1-0 1-1 1-0 1-0 0-0 2-2 2-1 0-1 2-0 0-0 0-1 0-0 0-1 0-2 0-1</t>
-  </si>
-  <si>
-    <t>Din. Bucuresti,3-2 1-0 3-1 1-0 0-1 3-0 0-2 6-0 1-2 5-0 2-2 2-1 1-1 4-1 0-3</t>
-  </si>
-  <si>
-    <t>Farul Constanta,0-0 2-0 0-0 1-0 1-0 3-0 1-1 5-0 2-0 2-1 1-0 2-1 0-2 0-1 1-0</t>
-  </si>
-  <si>
-    <t>FC Arges,1-0 0-1 2-2 0-1 0-2 0-1 0-2 1-0 0-1 0-0 0-0 2-1 0-2 2-1 0-1</t>
-  </si>
-  <si>
-    <t>FC Botosani,0-0 0-1 1-2 2-1 0-1 0-2 1-1 1-0 1-2 1-1 1-1 0-0 1-1 0-2 0-1</t>
-  </si>
-  <si>
-    <t>FC Rapid Bucuresti,1-0 0-2 0-0 0-1 1-0 0-2 1-2 2-2 1-2 0-1 2-2 2-0 1-1 0-0 2-3</t>
-  </si>
-  <si>
-    <t>FC Steaua Bucuresti,0-0 4-1 1-1 2-1 1-0 1-1 4-1 6-0 0-1 3-2 0-1 3-0 2-1 0-1 0-0</t>
-  </si>
-  <si>
-    <t>FC Voluntari,3-2 0-1 2-1 3-0 1-0 2-0 2-1 1-2 4-0 0-1 1-0 1-2 0-2 1-0 0-0</t>
-  </si>
-  <si>
-    <t>Gaz Metan Medias,1-0 2-0 2-2 2-1 0-1 1-0 0-1 1-2 1-2 0-0 2-1 2-1 2-0 1-1 0-1</t>
-  </si>
-  <si>
-    <t>Mioveni,1-0 0-2 1-2 0-1 0-1 1-0 1-1 0-1 4-0 2-1 0-0 3-0 1-1 5-2 0-0</t>
-  </si>
-  <si>
-    <t>Sepsi Sf. Gheorghe,2-0 1-1 1-2 1-0 0-2 1-1 1-1 1-1 0-0 0-0 2-2 1-2 2-0 4-1 1-1</t>
-  </si>
-  <si>
-    <t>U Craiova 1948,3-2 1-0 2-1 1-2 0-0 1-0 1-1 1-0 0-1 1-1 0-2 1-0 2-0 0-0 1-1</t>
-  </si>
-  <si>
-    <t>Univ. Craiova,1-0 4-1 1-2 3-0 1-0 1-0 1-2 1-1 1-0 5-0 0-2 5-0 0-1 5-2 1-0</t>
-  </si>
-  <si>
-    <t>UTA Arad,0-0 0-1 1-1 2-1 1-0 2-0 0-1 2-2 0-0 0-1 2-2 1-0 0-3 0-2 0-0</t>
-  </si>
-  <si>
-    <t>Academica Clinceni,-2 -1 -2 -1 -1 0 0 -5 -1 -1 0 -5 -3 0 -1,(-23)</t>
-  </si>
-  <si>
-    <t>CFR Cluj,1 1 1 1 1 1 3 -1 1 1 1 -2 2 1 3,(15)</t>
-  </si>
-  <si>
-    <t>Chindia Targoviste,-1 0 -1 1 0 0 -1 1 2 0 -1 0 -1 2 -1,(0)</t>
-  </si>
-  <si>
-    <t>Din. Bucuresti,1 -1 2 -1 -1 -3 -2 -6 -1 -5 0 -1 0 -3 -3,(-24)</t>
-  </si>
-  <si>
-    <t>Farul Constanta,0 2 0 1 -1 3 0 5 -2 1 -1 -1 2 -1 1,(9)</t>
-  </si>
-  <si>
-    <t>FC Arges,-1 -1 0 -1 2 -1 2 1 1 0 0 1 2 -1 -1,(3)</t>
-  </si>
-  <si>
-    <t>FC Botosani,0 1 1 1 1 -2 0 1 1 0 0 0 0 -2 1,(3)</t>
-  </si>
-  <si>
-    <t>FC Rapid Bucuresti,1 2 0 1 1 2 -1 0 -1 -1 0 2 0 0 1,(7)</t>
-  </si>
-  <si>
-    <t>FC Steaua Bucuresti,0 3 0 1 -1 0 -3 6 1 1 1 3 1 1 0,(14)</t>
-  </si>
-  <si>
-    <t>FC Voluntari,-1 -1 1 -3 1 -2 1 1 4 1 1 1 -2 -1 0,(1)</t>
-  </si>
-  <si>
-    <t>Gaz Metan Medias,1 -2 0 -1 -1 -1 -1 -1 1 0 -1 1 -2 0 1,(-6)</t>
-  </si>
-  <si>
-    <t>Mioveni,-1 -2 1 -1 1 1 0 -1 -4 -1 0 -3 0 -3 0,(-13)</t>
-  </si>
-  <si>
-    <t>Sepsi Sf. Gheorghe,2 0 -1 -1 -2 0 0 0 0 0 0 -1 -2 3 0,(-2)</t>
-  </si>
-  <si>
-    <t>U Craiova 1948,-1 1 -1 1 0 -1 0 -1 -1 0 -2 -1 2 0 0,(-4)</t>
-  </si>
-  <si>
-    <t>Univ. Craiova,1 -3 -1 3 -1 1 1 0 -1 5 2 5 1 3 -1,(15)</t>
-  </si>
-  <si>
-    <t>UTA Arad,0 1 0 -1 1 2 1 0 0 -1 0 1 3 -2 0,(5)</t>
-  </si>
-  <si>
-    <t>Academica Clinceni,Sepsi Sf. Gheorghe(12) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(13) FC Voluntari(6) Chindia Targoviste(10) Mioveni(14) Farul Constanta(7) FC Arges(9) FC Steaua Bucuresti(2) FC Botosani(4) Univ. Craiova(3) UTA Arad(8) Gaz Metan Medias(11) FC Rapid Bucuresti(5)</t>
-  </si>
-  <si>
-    <t>CFR Cluj,U Craiova 1948(13) Academica Clinceni(16) Chindia Targoviste(10) Mioveni(14) Farul Constanta(7) FC Arges(9) FC Steaua Bucuresti(2) FC Botosani(4) Univ. Craiova(3) UTA Arad(8) Gaz Metan Medias(11) FC Rapid Bucuresti(5) Sepsi Sf. Gheorghe(12) FC Voluntari(6) Din. Bucuresti(15)</t>
-  </si>
-  <si>
-    <t>Chindia Targoviste,FC Rapid Bucuresti(5) Sepsi Sf. Gheorghe(12) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(13) Academica Clinceni(16) FC Voluntari(6) Mioveni(14) Farul Constanta(7) FC Arges(9) FC Steaua Bucuresti(2) FC Botosani(4) Univ. Craiova(3) UTA Arad(8) Gaz Metan Medias(11)</t>
-  </si>
-  <si>
-    <t>Din. Bucuresti,FC Voluntari(6) U Craiova 1948(13) Academica Clinceni(16) Chindia Targoviste(10) Mioveni(14) Farul Constanta(7) FC Arges(9) FC Steaua Bucuresti(2) FC Botosani(4) Univ. Craiova(3) UTA Arad(8) Gaz Metan Medias(11) FC Rapid Bucuresti(5) Sepsi Sf. Gheorghe(12) CFR Cluj(1)</t>
-  </si>
-  <si>
-    <t>Farul Constanta,UTA Arad(8) Gaz Metan Medias(11) FC Rapid Bucuresti(5) Sepsi Sf. Gheorghe(12) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(13) Academica Clinceni(16) Chindia Targoviste(10) Mioveni(14) FC Voluntari(6) FC Arges(9) FC Botosani(4) FC Steaua Bucuresti(2) Univ. Craiova(3)</t>
-  </si>
-  <si>
-    <t>FC Arges,Univ. Craiova(3) UTA Arad(8) Gaz Metan Medias(11) FC Rapid Bucuresti(5) Sepsi Sf. Gheorghe(12) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(13) Academica Clinceni(16) Chindia Targoviste(10) Mioveni(14) Farul Constanta(7) FC Voluntari(6) FC Steaua Bucuresti(2) FC Botosani(4)</t>
-  </si>
-  <si>
-    <t>FC Botosani,FC Steaua Bucuresti(2) FC Voluntari(6) Univ. Craiova(3) UTA Arad(8) Gaz Metan Medias(11) FC Rapid Bucuresti(5) Sepsi Sf. Gheorghe(12) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(13) Academica Clinceni(16) Chindia Targoviste(10) Mioveni(14) Farul Constanta(7) FC Arges(9)</t>
-  </si>
-  <si>
-    <t>FC Rapid Bucuresti,Chindia Targoviste(10) Mioveni(14) Farul Constanta(7) FC Arges(9) FC Steaua Bucuresti(2) FC Botosani(4) Univ. Craiova(3) UTA Arad(8) Gaz Metan Medias(11) FC Voluntari(6) Sepsi Sf. Gheorghe(12) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(13) Academica Clinceni(16)</t>
-  </si>
-  <si>
-    <t>FC Steaua Bucuresti,FC Botosani(4) Univ. Craiova(3) UTA Arad(8) Gaz Metan Medias(11) FC Rapid Bucuresti(5) Sepsi Sf. Gheorghe(12) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(13) Academica Clinceni(16) Chindia Targoviste(10) Mioveni(14) FC Arges(9) Farul Constanta(7) FC Voluntari(6)</t>
-  </si>
-  <si>
-    <t>FC Voluntari,Din. Bucuresti(15) FC Botosani(4) U Craiova 1948(13) Univ. Craiova(3) Academica Clinceni(16) UTA Arad(8) Chindia Targoviste(10) Gaz Metan Medias(11) Mioveni(14) FC Rapid Bucuresti(5) Farul Constanta(7) Sepsi Sf. Gheorghe(12) FC Arges(9) CFR Cluj(1) FC Steaua Bucuresti(2)</t>
-  </si>
-  <si>
-    <t>Gaz Metan Medias,Mioveni(14) Farul Constanta(7) FC Arges(9) FC Steaua Bucuresti(2) FC Botosani(4) Univ. Craiova(3) UTA Arad(8) FC Voluntari(6) FC Rapid Bucuresti(5) Sepsi Sf. Gheorghe(12) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(13) Academica Clinceni(16) Chindia Targoviste(10)</t>
-  </si>
-  <si>
-    <t>Mioveni,Gaz Metan Medias(11) FC Rapid Bucuresti(5) Sepsi Sf. Gheorghe(12) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(13) Academica Clinceni(16) Chindia Targoviste(10) FC Voluntari(6) Farul Constanta(7) FC Arges(9) FC Steaua Bucuresti(2) FC Botosani(4) Univ. Craiova(3) UTA Arad(8)</t>
-  </si>
-  <si>
-    <t>Sepsi Sf. Gheorghe,Academica Clinceni(16) Chindia Targoviste(10) Mioveni(14) Farul Constanta(7) FC Arges(9) FC Steaua Bucuresti(2) FC Botosani(4) Univ. Craiova(3) UTA Arad(8) Gaz Metan Medias(11) FC Rapid Bucuresti(5) FC Voluntari(6) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(13)</t>
-  </si>
-  <si>
-    <t>U Craiova 1948,CFR Cluj(1) Din. Bucuresti(15) FC Voluntari(6) Academica Clinceni(16) Chindia Targoviste(10) Mioveni(14) Farul Constanta(7) FC Arges(9) FC Steaua Bucuresti(2) FC Botosani(4) Univ. Craiova(3) UTA Arad(8) Gaz Metan Medias(11) FC Rapid Bucuresti(5) Sepsi Sf. Gheorghe(12)</t>
-  </si>
-  <si>
-    <t>Univ. Craiova,FC Arges(9) FC Steaua Bucuresti(2) FC Botosani(4) FC Voluntari(6) UTA Arad(8) Gaz Metan Medias(11) FC Rapid Bucuresti(5) Sepsi Sf. Gheorghe(12) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(13) Academica Clinceni(16) Chindia Targoviste(10) Mioveni(14) Farul Constanta(7)</t>
-  </si>
-  <si>
-    <t>UTA Arad,Farul Constanta(7) FC Arges(9) FC Steaua Bucuresti(2) FC Botosani(4) Univ. Craiova(3) FC Voluntari(6) Gaz Metan Medias(11) FC Rapid Bucuresti(5) Sepsi Sf. Gheorghe(12) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(13) Academica Clinceni(16) Chindia Targoviste(10) Mioveni(14)</t>
+    <t>Academica Clinceni,L D L L D L</t>
+  </si>
+  <si>
+    <t>CFR Cluj,W W L W W W</t>
+  </si>
+  <si>
+    <t>Chindia Targoviste,D L D L W L</t>
+  </si>
+  <si>
+    <t>Din. Bucuresti,L D L D L L</t>
+  </si>
+  <si>
+    <t>Farul Constanta,W L L W L W</t>
+  </si>
+  <si>
+    <t>FC Arges,D D W W L L</t>
+  </si>
+  <si>
+    <t>FC Botosani,D D D D L W</t>
+  </si>
+  <si>
+    <t>FC Rapid Bucuresti,L D W D D W</t>
+  </si>
+  <si>
+    <t>FC Steaua Bucuresti,W W W W W D</t>
+  </si>
+  <si>
+    <t>FC Voluntari,W W W L L D</t>
+  </si>
+  <si>
+    <t>Gaz Metan Medias,D L W L D W</t>
+  </si>
+  <si>
+    <t>Mioveni,L D L D L D</t>
+  </si>
+  <si>
+    <t>Sepsi Sf. Gheorghe,D D L L W D</t>
+  </si>
+  <si>
+    <t>U Craiova 1948,D L L W D D</t>
+  </si>
+  <si>
+    <t>Univ. Craiova,W W W W W L</t>
+  </si>
+  <si>
+    <t>UTA Arad,L D W W L D</t>
+  </si>
+  <si>
+    <t>Academica Clinceni,2 1 0 0 1 2,(6)</t>
+  </si>
+  <si>
+    <t>CFR Cluj,1 2 0 2 1 3,(9)</t>
+  </si>
+  <si>
+    <t>Chindia Targoviste,0 0 0 0 2 0,(2)</t>
+  </si>
+  <si>
+    <t>Din. Bucuresti,0 2 1 1 1 0,(5)</t>
+  </si>
+  <si>
+    <t>Farul Constanta,2 0 1 2 0 1,(6)</t>
+  </si>
+  <si>
+    <t>FC Arges,0 0 2 2 1 0,(5)</t>
+  </si>
+  <si>
+    <t>FC Botosani,1 1 0 1 0 1,(4)</t>
+  </si>
+  <si>
+    <t>FC Rapid Bucuresti,0 2 2 1 0 3,(8)</t>
+  </si>
+  <si>
+    <t>FC Steaua Bucuresti,3 1 3 2 1 0,(10)</t>
+  </si>
+  <si>
+    <t>FC Voluntari,1 1 2 0 0 0,(4)</t>
+  </si>
+  <si>
+    <t>Gaz Metan Medias,0 1 2 0 1 1,(5)</t>
+  </si>
+  <si>
+    <t>Mioveni,1 0 0 1 2 0,(4)</t>
+  </si>
+  <si>
+    <t>Sepsi Sf. Gheorghe,0 2 1 0 4 1,(8)</t>
+  </si>
+  <si>
+    <t>U Craiova 1948,1 0 0 2 0 1,(4)</t>
+  </si>
+  <si>
+    <t>Univ. Craiova,5 2 5 1 5 0,(18)</t>
+  </si>
+  <si>
+    <t>UTA Arad,0 2 1 3 0 0,(6)</t>
+  </si>
+  <si>
+    <t>Academica Clinceni,3 1 5 3 1 3,(16)</t>
+  </si>
+  <si>
+    <t>CFR Cluj,0 1 2 0 0 0,(3)</t>
+  </si>
+  <si>
+    <t>Chindia Targoviste,0 1 0 1 0 1,(3)</t>
+  </si>
+  <si>
+    <t>Din. Bucuresti,5 2 2 1 4 3,(17)</t>
+  </si>
+  <si>
+    <t>Farul Constanta,1 1 2 0 1 0,(5)</t>
+  </si>
+  <si>
+    <t>FC Arges,0 0 1 0 2 1,(4)</t>
+  </si>
+  <si>
+    <t>FC Botosani,1 1 0 1 2 0,(5)</t>
+  </si>
+  <si>
+    <t>FC Rapid Bucuresti,1 2 0 1 0 2,(6)</t>
+  </si>
+  <si>
+    <t>FC Steaua Bucuresti,2 0 0 1 0 0,(3)</t>
+  </si>
+  <si>
+    <t>FC Voluntari,0 0 1 2 1 0,(4)</t>
+  </si>
+  <si>
+    <t>Gaz Metan Medias,0 2 1 2 1 0,(6)</t>
+  </si>
+  <si>
+    <t>Mioveni,2 0 3 1 5 0,(11)</t>
+  </si>
+  <si>
+    <t>Sepsi Sf. Gheorghe,0 2 2 2 1 1,(8)</t>
+  </si>
+  <si>
+    <t>U Craiova 1948,1 2 1 0 0 1,(5)</t>
+  </si>
+  <si>
+    <t>Univ. Craiova,0 0 0 0 2 1,(3)</t>
+  </si>
+  <si>
+    <t>UTA Arad,1 2 0 0 2 0,(5)</t>
+  </si>
+  <si>
+    <t>Academica Clinceni,5 2 5 3 2 5,(22)</t>
+  </si>
+  <si>
+    <t>CFR Cluj,1 3 2 2 1 3,(12)</t>
+  </si>
+  <si>
+    <t>Chindia Targoviste,0 1 0 1 2 1,(5)</t>
+  </si>
+  <si>
+    <t>Din. Bucuresti,5 4 3 2 5 3,(22)</t>
+  </si>
+  <si>
+    <t>Farul Constanta,3 1 3 2 1 1,(11)</t>
+  </si>
+  <si>
+    <t>FC Arges,0 0 3 2 3 1,(9)</t>
+  </si>
+  <si>
+    <t>FC Botosani,2 2 0 2 2 1,(9)</t>
+  </si>
+  <si>
+    <t>FC Rapid Bucuresti,1 4 2 2 0 5,(14)</t>
+  </si>
+  <si>
+    <t>FC Steaua Bucuresti,5 1 3 3 1 0,(13)</t>
+  </si>
+  <si>
+    <t>FC Voluntari,1 1 3 2 1 0,(8)</t>
+  </si>
+  <si>
+    <t>Gaz Metan Medias,0 3 3 2 2 1,(11)</t>
+  </si>
+  <si>
+    <t>Mioveni,3 0 3 2 7 0,(15)</t>
+  </si>
+  <si>
+    <t>Sepsi Sf. Gheorghe,0 4 3 2 5 2,(16)</t>
+  </si>
+  <si>
+    <t>U Craiova 1948,2 2 1 2 0 2,(9)</t>
+  </si>
+  <si>
+    <t>Univ. Craiova,5 2 5 1 7 1,(21)</t>
+  </si>
+  <si>
+    <t>UTA Arad,1 4 1 3 2 0,(11)</t>
+  </si>
+  <si>
+    <t>Academica Clinceni,3-2 1-1 5-0 0-3 1-1 2-3</t>
+  </si>
+  <si>
+    <t>CFR Cluj,0-1 2-1 2-0 2-0 1-0 0-3</t>
+  </si>
+  <si>
+    <t>Chindia Targoviste,0-0 0-1 0-0 0-1 0-2 0-1</t>
+  </si>
+  <si>
+    <t>Din. Bucuresti,5-0 2-2 2-1 1-1 4-1 0-3</t>
+  </si>
+  <si>
+    <t>Farul Constanta,2-1 1-0 2-1 0-2 0-1 1-0</t>
+  </si>
+  <si>
+    <t>FC Arges,0-0 0-0 2-1 0-2 2-1 0-1</t>
+  </si>
+  <si>
+    <t>FC Botosani,1-1 1-1 0-0 1-1 0-2 0-1</t>
+  </si>
+  <si>
+    <t>FC Rapid Bucuresti,0-1 2-2 2-0 1-1 0-0 2-3</t>
+  </si>
+  <si>
+    <t>FC Steaua Bucuresti,3-2 0-1 3-0 2-1 0-1 0-0</t>
+  </si>
+  <si>
+    <t>FC Voluntari,0-1 1-0 1-2 0-2 1-0 0-0</t>
+  </si>
+  <si>
+    <t>Gaz Metan Medias,0-0 2-1 2-1 2-0 1-1 0-1</t>
+  </si>
+  <si>
+    <t>Mioveni,2-1 0-0 3-0 1-1 5-2 0-0</t>
+  </si>
+  <si>
+    <t>Sepsi Sf. Gheorghe,0-0 2-2 1-2 2-0 4-1 1-1</t>
+  </si>
+  <si>
+    <t>U Craiova 1948,1-1 0-2 1-0 2-0 0-0 1-1</t>
+  </si>
+  <si>
+    <t>Univ. Craiova,5-0 0-2 5-0 0-1 5-2 1-0</t>
+  </si>
+  <si>
+    <t>UTA Arad,0-1 2-2 1-0 0-3 0-2 0-0</t>
+  </si>
+  <si>
+    <t>Academica Clinceni,-1 0 -5 -3 0 -1,(-10)</t>
+  </si>
+  <si>
+    <t>CFR Cluj,1 1 -2 2 1 3,(6)</t>
+  </si>
+  <si>
+    <t>Chindia Targoviste,0 -1 0 -1 2 -1,(-1)</t>
+  </si>
+  <si>
+    <t>Din. Bucuresti,-5 0 -1 0 -3 -3,(-12)</t>
+  </si>
+  <si>
+    <t>Farul Constanta,1 -1 -1 2 -1 1,(1)</t>
+  </si>
+  <si>
+    <t>FC Arges,0 0 1 2 -1 -1,(1)</t>
+  </si>
+  <si>
+    <t>FC Botosani,0 0 0 0 -2 1,(-1)</t>
+  </si>
+  <si>
+    <t>FC Rapid Bucuresti,-1 0 2 0 0 1,(2)</t>
+  </si>
+  <si>
+    <t>FC Steaua Bucuresti,1 1 3 1 1 0,(7)</t>
+  </si>
+  <si>
+    <t>FC Voluntari,1 1 1 -2 -1 0,(0)</t>
+  </si>
+  <si>
+    <t>Gaz Metan Medias,0 -1 1 -2 0 1,(-1)</t>
+  </si>
+  <si>
+    <t>Mioveni,-1 0 -3 0 -3 0,(-7)</t>
+  </si>
+  <si>
+    <t>Sepsi Sf. Gheorghe,0 0 -1 -2 3 0,(0)</t>
+  </si>
+  <si>
+    <t>U Craiova 1948,0 -2 -1 2 0 0,(-1)</t>
+  </si>
+  <si>
+    <t>Univ. Craiova,5 2 5 1 3 -1,(15)</t>
+  </si>
+  <si>
+    <t>UTA Arad,-1 0 1 3 -2 0,(1)</t>
+  </si>
+  <si>
+    <t>Academica Clinceni,FC Steaua Bucuresti(2) FC Botosani(4) Univ. Craiova(3) UTA Arad(8) Gaz Metan Medias(11) FC Rapid Bucuresti(5)</t>
+  </si>
+  <si>
+    <t>CFR Cluj,UTA Arad(8) Gaz Metan Medias(11) FC Rapid Bucuresti(5) Sepsi Sf. Gheorghe(12) FC Voluntari(6) Din. Bucuresti(15)</t>
+  </si>
+  <si>
+    <t>Chindia Targoviste,FC Arges(9) FC Steaua Bucuresti(2) FC Botosani(4) Univ. Craiova(3) UTA Arad(8) Gaz Metan Medias(11)</t>
+  </si>
+  <si>
+    <t>Din. Bucuresti,Univ. Craiova(3) UTA Arad(8) Gaz Metan Medias(11) FC Rapid Bucuresti(5) Sepsi Sf. Gheorghe(12) CFR Cluj(1)</t>
+  </si>
+  <si>
+    <t>Farul Constanta,Mioveni(14) FC Voluntari(6) FC Arges(9) FC Botosani(4) FC Steaua Bucuresti(2) Univ. Craiova(3)</t>
+  </si>
+  <si>
+    <t>FC Arges,Chindia Targoviste(10) Mioveni(14) Farul Constanta(7) FC Voluntari(6) FC Steaua Bucuresti(2) FC Botosani(4)</t>
+  </si>
+  <si>
+    <t>FC Botosani,U Craiova 1948(13) Academica Clinceni(16) Chindia Targoviste(10) Mioveni(14) Farul Constanta(7) FC Arges(9)</t>
+  </si>
+  <si>
+    <t>FC Rapid Bucuresti,FC Voluntari(6) Sepsi Sf. Gheorghe(12) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(13) Academica Clinceni(16)</t>
+  </si>
+  <si>
+    <t>FC Steaua Bucuresti,Academica Clinceni(16) Chindia Targoviste(10) Mioveni(14) FC Arges(9) Farul Constanta(7) FC Voluntari(6)</t>
+  </si>
+  <si>
+    <t>FC Voluntari,FC Rapid Bucuresti(5) Farul Constanta(7) Sepsi Sf. Gheorghe(12) FC Arges(9) CFR Cluj(1) FC Steaua Bucuresti(2)</t>
+  </si>
+  <si>
+    <t>Gaz Metan Medias,Sepsi Sf. Gheorghe(12) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(13) Academica Clinceni(16) Chindia Targoviste(10)</t>
+  </si>
+  <si>
+    <t>Mioveni,Farul Constanta(7) FC Arges(9) FC Steaua Bucuresti(2) FC Botosani(4) Univ. Craiova(3) UTA Arad(8)</t>
+  </si>
+  <si>
+    <t>Sepsi Sf. Gheorghe,Gaz Metan Medias(11) FC Rapid Bucuresti(5) FC Voluntari(6) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(13)</t>
+  </si>
+  <si>
+    <t>U Craiova 1948,FC Botosani(4) Univ. Craiova(3) UTA Arad(8) Gaz Metan Medias(11) FC Rapid Bucuresti(5) Sepsi Sf. Gheorghe(12)</t>
+  </si>
+  <si>
+    <t>Univ. Craiova,Din. Bucuresti(15) U Craiova 1948(13) Academica Clinceni(16) Chindia Targoviste(10) Mioveni(14) Farul Constanta(7)</t>
+  </si>
+  <si>
+    <t>UTA Arad,CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(13) Academica Clinceni(16) Chindia Targoviste(10) Mioveni(14)</t>
   </si>
   <si>
     <t>rou_division</t>

--- a/ROU.xlsx
+++ b/ROU.xlsx
@@ -590,340 +590,340 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Academica Clinceni,D L L D L L</t>
-  </si>
-  <si>
-    <t>CFR Cluj,W L W W W W</t>
-  </si>
-  <si>
-    <t>Chindia Targoviste,L D L W L D</t>
-  </si>
-  <si>
-    <t>Din. Bucuresti,D L D L L L</t>
-  </si>
-  <si>
-    <t>Farul Constanta,L L W L W D</t>
-  </si>
-  <si>
-    <t>FC Arges,D W W L L W</t>
-  </si>
-  <si>
-    <t>FC Botosani,D D D L W L</t>
-  </si>
-  <si>
-    <t>FC Rapid Bucuresti,D W D D W D</t>
-  </si>
-  <si>
-    <t>FC Steaua Bucuresti,W W W W D W</t>
-  </si>
-  <si>
-    <t>FC Voluntari,W W L L D W</t>
-  </si>
-  <si>
-    <t>Gaz Metan Medias,L W L D W L</t>
-  </si>
-  <si>
-    <t>Mioveni,D L D L D W</t>
-  </si>
-  <si>
-    <t>Sepsi Sf. Gheorghe,D L L W D W</t>
-  </si>
-  <si>
-    <t>U Craiova 1948,L L W D D L</t>
-  </si>
-  <si>
-    <t>Univ. Craiova,W W W W L L</t>
-  </si>
-  <si>
-    <t>UTA Arad,D W W L D D</t>
-  </si>
-  <si>
-    <t>Academica Clinceni,1 0 0 1 2 0,(4)</t>
-  </si>
-  <si>
-    <t>CFR Cluj,2 0 2 1 3 2,(10)</t>
-  </si>
-  <si>
-    <t>Chindia Targoviste,0 0 0 2 0 2,(4)</t>
-  </si>
-  <si>
-    <t>Din. Bucuresti,2 1 1 1 0 1,(6)</t>
-  </si>
-  <si>
-    <t>Farul Constanta,0 1 2 0 1 0,(4)</t>
-  </si>
-  <si>
-    <t>FC Arges,0 2 2 1 0 3,(8)</t>
-  </si>
-  <si>
-    <t>FC Botosani,1 0 1 0 1 1,(4)</t>
-  </si>
-  <si>
-    <t>FC Rapid Bucuresti,2 2 1 0 3 2,(10)</t>
-  </si>
-  <si>
-    <t>FC Steaua Bucuresti,1 3 2 1 0 3,(10)</t>
-  </si>
-  <si>
-    <t>FC Voluntari,1 2 0 0 0 2,(5)</t>
-  </si>
-  <si>
-    <t>Gaz Metan Medias,1 2 0 1 1 0,(5)</t>
-  </si>
-  <si>
-    <t>Mioveni,0 0 1 2 0 1,(4)</t>
-  </si>
-  <si>
-    <t>Sepsi Sf. Gheorghe,2 1 0 4 1 2,(10)</t>
-  </si>
-  <si>
-    <t>U Craiova 1948,0 0 2 0 1 0,(3)</t>
-  </si>
-  <si>
-    <t>Univ. Craiova,2 5 1 5 0 2,(15)</t>
-  </si>
-  <si>
-    <t>UTA Arad,2 1 3 0 0 0,(6)</t>
-  </si>
-  <si>
-    <t>Academica Clinceni,1 5 3 1 3 2,(15)</t>
-  </si>
-  <si>
-    <t>CFR Cluj,1 2 0 0 0 0,(3)</t>
-  </si>
-  <si>
-    <t>Chindia Targoviste,1 0 1 0 1 2,(5)</t>
-  </si>
-  <si>
-    <t>Din. Bucuresti,2 2 1 4 3 2,(14)</t>
-  </si>
-  <si>
-    <t>Farul Constanta,1 2 0 1 0 0,(4)</t>
-  </si>
-  <si>
-    <t>FC Arges,0 1 0 2 1 2,(6)</t>
-  </si>
-  <si>
-    <t>FC Botosani,1 0 1 2 0 3,(7)</t>
-  </si>
-  <si>
-    <t>FC Rapid Bucuresti,2 0 1 0 2 2,(7)</t>
-  </si>
-  <si>
-    <t>FC Steaua Bucuresti,0 0 1 0 0 1,(2)</t>
-  </si>
-  <si>
-    <t>FC Voluntari,0 1 2 1 0 1,(5)</t>
-  </si>
-  <si>
-    <t>Gaz Metan Medias,2 1 2 1 0 1,(7)</t>
-  </si>
-  <si>
-    <t>Mioveni,0 3 1 5 0 0,(9)</t>
-  </si>
-  <si>
-    <t>Sepsi Sf. Gheorghe,2 2 2 1 1 0,(8)</t>
-  </si>
-  <si>
-    <t>U Craiova 1948,2 1 0 0 1 2,(6)</t>
-  </si>
-  <si>
-    <t>Univ. Craiova,0 0 0 2 1 3,(6)</t>
-  </si>
-  <si>
-    <t>UTA Arad,2 0 0 2 0 0,(4)</t>
-  </si>
-  <si>
-    <t>Academica Clinceni,2 5 3 2 5 2,(19)</t>
-  </si>
-  <si>
-    <t>CFR Cluj,3 2 2 1 3 2,(13)</t>
-  </si>
-  <si>
-    <t>Chindia Targoviste,1 0 1 2 1 4,(9)</t>
-  </si>
-  <si>
-    <t>Din. Bucuresti,4 3 2 5 3 3,(20)</t>
-  </si>
-  <si>
-    <t>Farul Constanta,1 3 2 1 1 0,(8)</t>
-  </si>
-  <si>
-    <t>FC Arges,0 3 2 3 1 5,(14)</t>
-  </si>
-  <si>
-    <t>FC Botosani,2 0 2 2 1 4,(11)</t>
-  </si>
-  <si>
-    <t>FC Rapid Bucuresti,4 2 2 0 5 4,(17)</t>
-  </si>
-  <si>
-    <t>FC Steaua Bucuresti,1 3 3 1 0 4,(12)</t>
-  </si>
-  <si>
-    <t>FC Voluntari,1 3 2 1 0 3,(10)</t>
-  </si>
-  <si>
-    <t>Gaz Metan Medias,3 3 2 2 1 1,(12)</t>
-  </si>
-  <si>
-    <t>Mioveni,0 3 2 7 0 1,(13)</t>
-  </si>
-  <si>
-    <t>Sepsi Sf. Gheorghe,4 3 2 5 2 2,(18)</t>
-  </si>
-  <si>
-    <t>U Craiova 1948,2 1 2 0 2 2,(9)</t>
-  </si>
-  <si>
-    <t>Univ. Craiova,2 5 1 7 1 5,(21)</t>
-  </si>
-  <si>
-    <t>UTA Arad,4 1 3 2 0 0,(10)</t>
-  </si>
-  <si>
-    <t>Academica Clinceni,1-1 5-0 0-3 1-1 2-3 0-2</t>
-  </si>
-  <si>
-    <t>CFR Cluj,2-1 2-0 2-0 1-0 0-3 0-2</t>
-  </si>
-  <si>
-    <t>Chindia Targoviste,0-1 0-0 0-1 0-2 0-1 2-2</t>
-  </si>
-  <si>
-    <t>Din. Bucuresti,2-2 2-1 1-1 4-1 0-3 2-1</t>
-  </si>
-  <si>
-    <t>Farul Constanta,1-0 2-1 0-2 0-1 1-0 0-0</t>
-  </si>
-  <si>
-    <t>FC Arges,0-0 2-1 0-2 2-1 0-1 3-2</t>
-  </si>
-  <si>
-    <t>FC Botosani,1-1 0-0 1-1 0-2 0-1 3-1</t>
-  </si>
-  <si>
-    <t>FC Rapid Bucuresti,2-2 2-0 1-1 0-0 2-3 2-2</t>
-  </si>
-  <si>
-    <t>FC Steaua Bucuresti,0-1 3-0 2-1 0-1 0-0 3-1</t>
-  </si>
-  <si>
-    <t>FC Voluntari,1-0 1-2 0-2 1-0 0-0 2-1</t>
-  </si>
-  <si>
-    <t>Gaz Metan Medias,2-1 2-1 2-0 1-1 0-1 1-0</t>
-  </si>
-  <si>
-    <t>Mioveni,0-0 3-0 1-1 5-2 0-0 1-0</t>
-  </si>
-  <si>
-    <t>Sepsi Sf. Gheorghe,2-2 1-2 2-0 4-1 1-1 0-2</t>
-  </si>
-  <si>
-    <t>U Craiova 1948,0-2 1-0 2-0 0-0 1-1 0-2</t>
-  </si>
-  <si>
-    <t>Univ. Craiova,0-2 5-0 0-1 5-2 1-0 3-2</t>
-  </si>
-  <si>
-    <t>UTA Arad,2-2 1-0 0-3 0-2 0-0 0-0</t>
-  </si>
-  <si>
-    <t>Academica Clinceni,0 -5 -3 0 -1 -2,(-11)</t>
-  </si>
-  <si>
-    <t>CFR Cluj,1 -2 2 1 3 2,(7)</t>
-  </si>
-  <si>
-    <t>Chindia Targoviste,-1 0 -1 2 -1 0,(-1)</t>
-  </si>
-  <si>
-    <t>Din. Bucuresti,0 -1 0 -3 -3 -1,(-8)</t>
-  </si>
-  <si>
-    <t>Farul Constanta,-1 -1 2 -1 1 0,(0)</t>
-  </si>
-  <si>
-    <t>FC Arges,0 1 2 -1 -1 1,(2)</t>
-  </si>
-  <si>
-    <t>FC Botosani,0 0 0 -2 1 -2,(-3)</t>
-  </si>
-  <si>
-    <t>FC Rapid Bucuresti,0 2 0 0 1 0,(3)</t>
-  </si>
-  <si>
-    <t>FC Steaua Bucuresti,1 3 1 1 0 2,(8)</t>
-  </si>
-  <si>
-    <t>FC Voluntari,1 1 -2 -1 0 1,(0)</t>
-  </si>
-  <si>
-    <t>Gaz Metan Medias,-1 1 -2 0 1 -1,(-2)</t>
-  </si>
-  <si>
-    <t>Mioveni,0 -3 0 -3 0 1,(-5)</t>
-  </si>
-  <si>
-    <t>Sepsi Sf. Gheorghe,0 -1 -2 3 0 2,(2)</t>
-  </si>
-  <si>
-    <t>U Craiova 1948,-2 -1 2 0 0 -2,(-3)</t>
-  </si>
-  <si>
-    <t>Univ. Craiova,2 5 1 3 -1 -1,(9)</t>
-  </si>
-  <si>
-    <t>UTA Arad,0 1 3 -2 0 0,(2)</t>
-  </si>
-  <si>
-    <t>Academica Clinceni,FC Botosani(5) Univ. Craiova(4) UTA Arad(8) Gaz Metan Medias(13) FC Rapid Bucuresti(6) Sepsi Sf. Gheorghe(11)</t>
-  </si>
-  <si>
-    <t>CFR Cluj,Gaz Metan Medias(13) FC Rapid Bucuresti(6) Sepsi Sf. Gheorghe(11) FC Voluntari(3) Din. Bucuresti(15) U Craiova 1948(14)</t>
-  </si>
-  <si>
-    <t>Chindia Targoviste,FC Steaua Bucuresti(2) FC Botosani(5) Univ. Craiova(4) UTA Arad(8) Gaz Metan Medias(13) FC Rapid Bucuresti(6)</t>
-  </si>
-  <si>
-    <t>Din. Bucuresti,UTA Arad(8) Gaz Metan Medias(13) FC Rapid Bucuresti(6) Sepsi Sf. Gheorghe(11) CFR Cluj(1) FC Voluntari(3)</t>
-  </si>
-  <si>
-    <t>Farul Constanta,FC Voluntari(3) FC Arges(9) FC Botosani(5) FC Steaua Bucuresti(2) Univ. Craiova(4) UTA Arad(8)</t>
-  </si>
-  <si>
-    <t>FC Arges,Mioveni(12) Farul Constanta(7) FC Voluntari(3) FC Steaua Bucuresti(2) FC Botosani(5) Univ. Craiova(4)</t>
-  </si>
-  <si>
-    <t>FC Botosani,Academica Clinceni(16) Chindia Targoviste(10) Mioveni(12) Farul Constanta(7) FC Arges(9) FC Steaua Bucuresti(2)</t>
-  </si>
-  <si>
-    <t>FC Rapid Bucuresti,Sepsi Sf. Gheorghe(11) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(14) Academica Clinceni(16) Chindia Targoviste(10)</t>
-  </si>
-  <si>
-    <t>FC Steaua Bucuresti,Chindia Targoviste(10) Mioveni(12) FC Arges(9) Farul Constanta(7) FC Voluntari(3) FC Botosani(5)</t>
-  </si>
-  <si>
-    <t>FC Voluntari,Farul Constanta(7) Sepsi Sf. Gheorghe(11) FC Arges(9) CFR Cluj(1) FC Steaua Bucuresti(2) Din. Bucuresti(15)</t>
-  </si>
-  <si>
-    <t>Gaz Metan Medias,CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(14) Academica Clinceni(16) Chindia Targoviste(10) Mioveni(12)</t>
-  </si>
-  <si>
-    <t>Mioveni,FC Arges(9) FC Steaua Bucuresti(2) FC Botosani(5) Univ. Craiova(4) UTA Arad(8) Gaz Metan Medias(13)</t>
-  </si>
-  <si>
-    <t>Sepsi Sf. Gheorghe,FC Rapid Bucuresti(6) FC Voluntari(3) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(14) Academica Clinceni(16)</t>
-  </si>
-  <si>
-    <t>U Craiova 1948,Univ. Craiova(4) UTA Arad(8) Gaz Metan Medias(13) FC Rapid Bucuresti(6) Sepsi Sf. Gheorghe(11) CFR Cluj(1)</t>
-  </si>
-  <si>
-    <t>Univ. Craiova,U Craiova 1948(14) Academica Clinceni(16) Chindia Targoviste(10) Mioveni(12) Farul Constanta(7) FC Arges(9)</t>
-  </si>
-  <si>
-    <t>UTA Arad,Din. Bucuresti(15) U Craiova 1948(14) Academica Clinceni(16) Chindia Targoviste(10) Mioveni(12) Farul Constanta(7)</t>
+    <t>Academica Clinceni,L L L L L D D L L L D L L D L L</t>
+  </si>
+  <si>
+    <t>CFR Cluj,W W W W W W W L W W W L W W W W</t>
+  </si>
+  <si>
+    <t>Chindia Targoviste,L D L W D D L W W D L D L W L D</t>
+  </si>
+  <si>
+    <t>Din. Bucuresti,W L W L L L L L L L D L D L L L</t>
+  </si>
+  <si>
+    <t>Farul Constanta,D W D W L W D W L W L L W L W D</t>
+  </si>
+  <si>
+    <t>FC Arges,L L D L W L W W W D D W W L L W</t>
+  </si>
+  <si>
+    <t>FC Botosani,D W W W W L D W W D D D D L W L</t>
+  </si>
+  <si>
+    <t>FC Rapid Bucuresti,W W D W W W L D L L D W D D W D</t>
+  </si>
+  <si>
+    <t>FC Steaua Bucuresti,D W D W L D L W W W W W W W D W</t>
+  </si>
+  <si>
+    <t>FC Voluntari,L L W L W L W W W W W W L L D W</t>
+  </si>
+  <si>
+    <t>Gaz Metan Medias,W L D L L L L L W D L W L D W L</t>
+  </si>
+  <si>
+    <t>Mioveni,L L W L W W D L L L D L D L D W</t>
+  </si>
+  <si>
+    <t>Sepsi Sf. Gheorghe,W D L L L D D D D D D L L W D W</t>
+  </si>
+  <si>
+    <t>U Craiova 1948,L W L W D L D L L D L L W D D L</t>
+  </si>
+  <si>
+    <t>Univ. Craiova,W L L W L W W D L W W W W W L L</t>
+  </si>
+  <si>
+    <t>UTA Arad,D W D L W W W D D L D W W L D D</t>
+  </si>
+  <si>
+    <t>Academica Clinceni,0 1 1 1 0 2 1 0 0 2 1 0 0 1 2 0,(12)</t>
+  </si>
+  <si>
+    <t>CFR Cluj,3 2 1 1 1 1 4 0 1 1 2 0 2 1 3 2,(25)</t>
+  </si>
+  <si>
+    <t>Chindia Targoviste,0 1 0 1 0 2 1 1 2 0 0 0 0 2 0 2,(12)</t>
+  </si>
+  <si>
+    <t>Din. Bucuresti,3 0 3 0 0 0 0 0 1 0 2 1 1 1 0 1,(13)</t>
+  </si>
+  <si>
+    <t>Farul Constanta,0 2 0 1 0 3 1 5 0 2 0 1 2 0 1 0,(18)</t>
+  </si>
+  <si>
+    <t>FC Arges,0 0 2 0 2 0 2 1 1 0 0 2 2 1 0 3,(16)</t>
+  </si>
+  <si>
+    <t>FC Botosani,0 1 2 2 1 0 1 1 2 1 1 0 1 0 1 1,(15)</t>
+  </si>
+  <si>
+    <t>FC Rapid Bucuresti,1 2 0 1 1 2 1 2 1 0 2 2 1 0 3 2,(21)</t>
+  </si>
+  <si>
+    <t>FC Steaua Bucuresti,0 4 1 2 0 1 1 6 1 3 1 3 2 1 0 3,(29)</t>
+  </si>
+  <si>
+    <t>FC Voluntari,2 0 2 0 1 0 2 2 4 1 1 2 0 0 0 2,(19)</t>
+  </si>
+  <si>
+    <t>Gaz Metan Medias,1 0 2 1 0 0 0 1 2 0 1 2 0 1 1 0,(12)</t>
+  </si>
+  <si>
+    <t>Mioveni,0 0 2 0 1 1 1 0 0 1 0 0 1 2 0 1,(10)</t>
+  </si>
+  <si>
+    <t>Sepsi Sf. Gheorghe,2 1 1 0 0 1 1 1 0 0 2 1 0 4 1 2,(17)</t>
+  </si>
+  <si>
+    <t>U Craiova 1948,2 1 1 2 0 0 1 0 0 1 0 0 2 0 1 0,(11)</t>
+  </si>
+  <si>
+    <t>Univ. Craiova,1 1 1 3 0 1 2 1 0 5 2 5 1 5 0 2,(30)</t>
+  </si>
+  <si>
+    <t>UTA Arad,0 1 1 1 1 2 1 2 0 0 2 1 3 0 0 0,(15)</t>
+  </si>
+  <si>
+    <t>Academica Clinceni,2 2 3 2 1 2 1 5 1 3 1 5 3 1 3 2,(37)</t>
+  </si>
+  <si>
+    <t>CFR Cluj,2 1 0 0 0 0 1 1 0 0 1 2 0 0 0 0,(8)</t>
+  </si>
+  <si>
+    <t>Chindia Targoviste,1 1 1 0 0 2 2 0 0 0 1 0 1 0 1 2,(12)</t>
+  </si>
+  <si>
+    <t>Din. Bucuresti,2 1 1 1 1 3 2 6 2 5 2 2 1 4 3 2,(38)</t>
+  </si>
+  <si>
+    <t>Farul Constanta,0 0 0 0 1 0 1 0 2 1 1 2 0 1 0 0,(9)</t>
+  </si>
+  <si>
+    <t>FC Arges,1 1 2 1 0 1 0 0 0 0 0 1 0 2 1 2,(12)</t>
+  </si>
+  <si>
+    <t>FC Botosani,0 0 1 1 0 2 1 0 1 1 1 0 1 2 0 3,(14)</t>
+  </si>
+  <si>
+    <t>FC Rapid Bucuresti,0 0 0 0 0 0 2 2 2 1 2 0 1 0 2 2,(14)</t>
+  </si>
+  <si>
+    <t>FC Steaua Bucuresti,0 1 1 1 1 1 4 0 0 2 0 0 1 0 0 1,(13)</t>
+  </si>
+  <si>
+    <t>FC Voluntari,3 1 1 3 0 2 1 1 0 0 0 1 2 1 0 1,(17)</t>
+  </si>
+  <si>
+    <t>Gaz Metan Medias,0 2 2 2 1 1 1 2 1 0 2 1 2 1 0 1,(19)</t>
+  </si>
+  <si>
+    <t>Mioveni,1 2 1 1 0 0 1 1 4 2 0 3 1 5 0 0,(22)</t>
+  </si>
+  <si>
+    <t>Sepsi Sf. Gheorghe,0 1 2 1 2 1 1 1 0 0 2 2 2 1 1 0,(17)</t>
+  </si>
+  <si>
+    <t>U Craiova 1948,3 0 2 1 0 1 1 1 1 1 2 1 0 0 1 2,(17)</t>
+  </si>
+  <si>
+    <t>Univ. Craiova,0 4 2 0 1 0 1 1 1 0 0 0 0 2 1 3,(16)</t>
+  </si>
+  <si>
+    <t>UTA Arad,0 0 1 2 0 0 0 2 0 1 2 0 0 2 0 0,(10)</t>
+  </si>
+  <si>
+    <t>Academica Clinceni,2 3 4 3 1 4 2 5 1 5 2 5 3 2 5 2,(49)</t>
+  </si>
+  <si>
+    <t>CFR Cluj,5 3 1 1 1 1 5 1 1 1 3 2 2 1 3 2,(33)</t>
+  </si>
+  <si>
+    <t>Chindia Targoviste,1 2 1 1 0 4 3 1 2 0 1 0 1 2 1 4,(24)</t>
+  </si>
+  <si>
+    <t>Din. Bucuresti,5 1 4 1 1 3 2 6 3 5 4 3 2 5 3 3,(51)</t>
+  </si>
+  <si>
+    <t>Farul Constanta,0 2 0 1 1 3 2 5 2 3 1 3 2 1 1 0,(27)</t>
+  </si>
+  <si>
+    <t>FC Arges,1 1 4 1 2 1 2 1 1 0 0 3 2 3 1 5,(28)</t>
+  </si>
+  <si>
+    <t>FC Botosani,0 1 3 3 1 2 2 1 3 2 2 0 2 2 1 4,(29)</t>
+  </si>
+  <si>
+    <t>FC Rapid Bucuresti,1 2 0 1 1 2 3 4 3 1 4 2 2 0 5 4,(35)</t>
+  </si>
+  <si>
+    <t>FC Steaua Bucuresti,0 5 2 3 1 2 5 6 1 5 1 3 3 1 0 4,(42)</t>
+  </si>
+  <si>
+    <t>FC Voluntari,5 1 3 3 1 2 3 3 4 1 1 3 2 1 0 3,(36)</t>
+  </si>
+  <si>
+    <t>Gaz Metan Medias,1 2 4 3 1 1 1 3 3 0 3 3 2 2 1 1,(31)</t>
+  </si>
+  <si>
+    <t>Mioveni,1 2 3 1 1 1 2 1 4 3 0 3 2 7 0 1,(32)</t>
+  </si>
+  <si>
+    <t>Sepsi Sf. Gheorghe,2 2 3 1 2 2 2 2 0 0 4 3 2 5 2 2,(34)</t>
+  </si>
+  <si>
+    <t>U Craiova 1948,5 1 3 3 0 1 2 1 1 2 2 1 2 0 2 2,(28)</t>
+  </si>
+  <si>
+    <t>Univ. Craiova,1 5 3 3 1 1 3 2 1 5 2 5 1 7 1 5,(46)</t>
+  </si>
+  <si>
+    <t>UTA Arad,0 1 2 3 1 2 1 4 0 1 4 1 3 2 0 0,(25)</t>
+  </si>
+  <si>
+    <t>Academica Clinceni,2-0 1-2 3-1 1-2 1-0 2-2 1-1 5-0 0-1 3-2 1-1 5-0 0-3 1-1 2-3 0-2</t>
+  </si>
+  <si>
+    <t>CFR Cluj,3-2 1-2 1-0 0-1 1-0 0-1 4-1 1-0 1-0 0-1 2-1 2-0 2-0 1-0 0-3 0-2</t>
+  </si>
+  <si>
+    <t>Chindia Targoviste,1-0 1-1 1-0 1-0 0-0 2-2 2-1 0-1 2-0 0-0 0-1 0-0 0-1 0-2 0-1 2-2</t>
+  </si>
+  <si>
+    <t>Din. Bucuresti,3-2 1-0 3-1 1-0 0-1 3-0 0-2 6-0 1-2 5-0 2-2 2-1 1-1 4-1 0-3 2-1</t>
+  </si>
+  <si>
+    <t>Farul Constanta,0-0 2-0 0-0 1-0 1-0 3-0 1-1 5-0 2-0 2-1 1-0 2-1 0-2 0-1 1-0 0-0</t>
+  </si>
+  <si>
+    <t>FC Arges,1-0 0-1 2-2 0-1 0-2 0-1 0-2 1-0 0-1 0-0 0-0 2-1 0-2 2-1 0-1 3-2</t>
+  </si>
+  <si>
+    <t>FC Botosani,0-0 0-1 1-2 2-1 0-1 0-2 1-1 1-0 1-2 1-1 1-1 0-0 1-1 0-2 0-1 3-1</t>
+  </si>
+  <si>
+    <t>FC Rapid Bucuresti,1-0 0-2 0-0 0-1 1-0 0-2 1-2 2-2 1-2 0-1 2-2 2-0 1-1 0-0 2-3 2-2</t>
+  </si>
+  <si>
+    <t>FC Steaua Bucuresti,0-0 4-1 1-1 2-1 1-0 1-1 4-1 6-0 0-1 3-2 0-1 3-0 2-1 0-1 0-0 3-1</t>
+  </si>
+  <si>
+    <t>FC Voluntari,3-2 0-1 2-1 3-0 1-0 2-0 2-1 1-2 4-0 0-1 1-0 1-2 0-2 1-0 0-0 2-1</t>
+  </si>
+  <si>
+    <t>Gaz Metan Medias,1-0 2-0 2-2 2-1 0-1 1-0 0-1 1-2 1-2 0-0 2-1 2-1 2-0 1-1 0-1 1-0</t>
+  </si>
+  <si>
+    <t>Mioveni,1-0 0-2 1-2 0-1 0-1 1-0 1-1 0-1 4-0 2-1 0-0 3-0 1-1 5-2 0-0 1-0</t>
+  </si>
+  <si>
+    <t>Sepsi Sf. Gheorghe,2-0 1-1 1-2 1-0 0-2 1-1 1-1 1-1 0-0 0-0 2-2 1-2 2-0 4-1 1-1 0-2</t>
+  </si>
+  <si>
+    <t>U Craiova 1948,3-2 1-0 2-1 1-2 0-0 1-0 1-1 1-0 0-1 1-1 0-2 1-0 2-0 0-0 1-1 0-2</t>
+  </si>
+  <si>
+    <t>Univ. Craiova,1-0 4-1 1-2 3-0 1-0 1-0 1-2 1-1 1-0 5-0 0-2 5-0 0-1 5-2 1-0 3-2</t>
+  </si>
+  <si>
+    <t>UTA Arad,0-0 0-1 1-1 2-1 1-0 2-0 0-1 2-2 0-0 0-1 2-2 1-0 0-3 0-2 0-0 0-0</t>
+  </si>
+  <si>
+    <t>Academica Clinceni,-2 -1 -2 -1 -1 0 0 -5 -1 -1 0 -5 -3 0 -1 -2,(-25)</t>
+  </si>
+  <si>
+    <t>CFR Cluj,1 1 1 1 1 1 3 -1 1 1 1 -2 2 1 3 2,(17)</t>
+  </si>
+  <si>
+    <t>Chindia Targoviste,-1 0 -1 1 0 0 -1 1 2 0 -1 0 -1 2 -1 0,(0)</t>
+  </si>
+  <si>
+    <t>Din. Bucuresti,1 -1 2 -1 -1 -3 -2 -6 -1 -5 0 -1 0 -3 -3 -1,(-25)</t>
+  </si>
+  <si>
+    <t>Farul Constanta,0 2 0 1 -1 3 0 5 -2 1 -1 -1 2 -1 1 0,(9)</t>
+  </si>
+  <si>
+    <t>FC Arges,-1 -1 0 -1 2 -1 2 1 1 0 0 1 2 -1 -1 1,(4)</t>
+  </si>
+  <si>
+    <t>FC Botosani,0 1 1 1 1 -2 0 1 1 0 0 0 0 -2 1 -2,(1)</t>
+  </si>
+  <si>
+    <t>FC Rapid Bucuresti,1 2 0 1 1 2 -1 0 -1 -1 0 2 0 0 1 0,(7)</t>
+  </si>
+  <si>
+    <t>FC Steaua Bucuresti,0 3 0 1 -1 0 -3 6 1 1 1 3 1 1 0 2,(16)</t>
+  </si>
+  <si>
+    <t>FC Voluntari,-1 -1 1 -3 1 -2 1 1 4 1 1 1 -2 -1 0 1,(2)</t>
+  </si>
+  <si>
+    <t>Gaz Metan Medias,1 -2 0 -1 -1 -1 -1 -1 1 0 -1 1 -2 0 1 -1,(-7)</t>
+  </si>
+  <si>
+    <t>Mioveni,-1 -2 1 -1 1 1 0 -1 -4 -1 0 -3 0 -3 0 1,(-12)</t>
+  </si>
+  <si>
+    <t>Sepsi Sf. Gheorghe,2 0 -1 -1 -2 0 0 0 0 0 0 -1 -2 3 0 2,(0)</t>
+  </si>
+  <si>
+    <t>U Craiova 1948,-1 1 -1 1 0 -1 0 -1 -1 0 -2 -1 2 0 0 -2,(-6)</t>
+  </si>
+  <si>
+    <t>Univ. Craiova,1 -3 -1 3 -1 1 1 0 -1 5 2 5 1 3 -1 -1,(14)</t>
+  </si>
+  <si>
+    <t>UTA Arad,0 1 0 -1 1 2 1 0 0 -1 0 1 3 -2 0 0,(5)</t>
+  </si>
+  <si>
+    <t>Academica Clinceni,Sepsi Sf. Gheorghe(11) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(14) FC Voluntari(3) Chindia Targoviste(10) Mioveni(12) Farul Constanta(7) FC Arges(9) FC Steaua Bucuresti(2) FC Botosani(5) Univ. Craiova(4) UTA Arad(8) Gaz Metan Medias(13) FC Rapid Bucuresti(6) Sepsi Sf. Gheorghe(11)</t>
+  </si>
+  <si>
+    <t>CFR Cluj,U Craiova 1948(14) Academica Clinceni(16) Chindia Targoviste(10) Mioveni(12) Farul Constanta(7) FC Arges(9) FC Steaua Bucuresti(2) FC Botosani(5) Univ. Craiova(4) UTA Arad(8) Gaz Metan Medias(13) FC Rapid Bucuresti(6) Sepsi Sf. Gheorghe(11) FC Voluntari(3) Din. Bucuresti(15) U Craiova 1948(14)</t>
+  </si>
+  <si>
+    <t>Chindia Targoviste,FC Rapid Bucuresti(6) Sepsi Sf. Gheorghe(11) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(14) Academica Clinceni(16) FC Voluntari(3) Mioveni(12) Farul Constanta(7) FC Arges(9) FC Steaua Bucuresti(2) FC Botosani(5) Univ. Craiova(4) UTA Arad(8) Gaz Metan Medias(13) FC Rapid Bucuresti(6)</t>
+  </si>
+  <si>
+    <t>Din. Bucuresti,FC Voluntari(3) U Craiova 1948(14) Academica Clinceni(16) Chindia Targoviste(10) Mioveni(12) Farul Constanta(7) FC Arges(9) FC Steaua Bucuresti(2) FC Botosani(5) Univ. Craiova(4) UTA Arad(8) Gaz Metan Medias(13) FC Rapid Bucuresti(6) Sepsi Sf. Gheorghe(11) CFR Cluj(1) FC Voluntari(3)</t>
+  </si>
+  <si>
+    <t>Farul Constanta,UTA Arad(8) Gaz Metan Medias(13) FC Rapid Bucuresti(6) Sepsi Sf. Gheorghe(11) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(14) Academica Clinceni(16) Chindia Targoviste(10) Mioveni(12) FC Voluntari(3) FC Arges(9) FC Botosani(5) FC Steaua Bucuresti(2) Univ. Craiova(4) UTA Arad(8)</t>
+  </si>
+  <si>
+    <t>FC Arges,Univ. Craiova(4) UTA Arad(8) Gaz Metan Medias(13) FC Rapid Bucuresti(6) Sepsi Sf. Gheorghe(11) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(14) Academica Clinceni(16) Chindia Targoviste(10) Mioveni(12) Farul Constanta(7) FC Voluntari(3) FC Steaua Bucuresti(2) FC Botosani(5) Univ. Craiova(4)</t>
+  </si>
+  <si>
+    <t>FC Botosani,FC Steaua Bucuresti(2) FC Voluntari(3) Univ. Craiova(4) UTA Arad(8) Gaz Metan Medias(13) FC Rapid Bucuresti(6) Sepsi Sf. Gheorghe(11) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(14) Academica Clinceni(16) Chindia Targoviste(10) Mioveni(12) Farul Constanta(7) FC Arges(9) FC Steaua Bucuresti(2)</t>
+  </si>
+  <si>
+    <t>FC Rapid Bucuresti,Chindia Targoviste(10) Mioveni(12) Farul Constanta(7) FC Arges(9) FC Steaua Bucuresti(2) FC Botosani(5) Univ. Craiova(4) UTA Arad(8) Gaz Metan Medias(13) FC Voluntari(3) Sepsi Sf. Gheorghe(11) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(14) Academica Clinceni(16) Chindia Targoviste(10)</t>
+  </si>
+  <si>
+    <t>FC Steaua Bucuresti,FC Botosani(5) Univ. Craiova(4) UTA Arad(8) Gaz Metan Medias(13) FC Rapid Bucuresti(6) Sepsi Sf. Gheorghe(11) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(14) Academica Clinceni(16) Chindia Targoviste(10) Mioveni(12) FC Arges(9) Farul Constanta(7) FC Voluntari(3) FC Botosani(5)</t>
+  </si>
+  <si>
+    <t>FC Voluntari,Din. Bucuresti(15) FC Botosani(5) U Craiova 1948(14) Univ. Craiova(4) Academica Clinceni(16) UTA Arad(8) Chindia Targoviste(10) Gaz Metan Medias(13) Mioveni(12) FC Rapid Bucuresti(6) Farul Constanta(7) Sepsi Sf. Gheorghe(11) FC Arges(9) CFR Cluj(1) FC Steaua Bucuresti(2) Din. Bucuresti(15)</t>
+  </si>
+  <si>
+    <t>Gaz Metan Medias,Mioveni(12) Farul Constanta(7) FC Arges(9) FC Steaua Bucuresti(2) FC Botosani(5) Univ. Craiova(4) UTA Arad(8) FC Voluntari(3) FC Rapid Bucuresti(6) Sepsi Sf. Gheorghe(11) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(14) Academica Clinceni(16) Chindia Targoviste(10) Mioveni(12)</t>
+  </si>
+  <si>
+    <t>Mioveni,Gaz Metan Medias(13) FC Rapid Bucuresti(6) Sepsi Sf. Gheorghe(11) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(14) Academica Clinceni(16) Chindia Targoviste(10) FC Voluntari(3) Farul Constanta(7) FC Arges(9) FC Steaua Bucuresti(2) FC Botosani(5) Univ. Craiova(4) UTA Arad(8) Gaz Metan Medias(13)</t>
+  </si>
+  <si>
+    <t>Sepsi Sf. Gheorghe,Academica Clinceni(16) Chindia Targoviste(10) Mioveni(12) Farul Constanta(7) FC Arges(9) FC Steaua Bucuresti(2) FC Botosani(5) Univ. Craiova(4) UTA Arad(8) Gaz Metan Medias(13) FC Rapid Bucuresti(6) FC Voluntari(3) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(14) Academica Clinceni(16)</t>
+  </si>
+  <si>
+    <t>U Craiova 1948,CFR Cluj(1) Din. Bucuresti(15) FC Voluntari(3) Academica Clinceni(16) Chindia Targoviste(10) Mioveni(12) Farul Constanta(7) FC Arges(9) FC Steaua Bucuresti(2) FC Botosani(5) Univ. Craiova(4) UTA Arad(8) Gaz Metan Medias(13) FC Rapid Bucuresti(6) Sepsi Sf. Gheorghe(11) CFR Cluj(1)</t>
+  </si>
+  <si>
+    <t>Univ. Craiova,FC Arges(9) FC Steaua Bucuresti(2) FC Botosani(5) FC Voluntari(3) UTA Arad(8) Gaz Metan Medias(13) FC Rapid Bucuresti(6) Sepsi Sf. Gheorghe(11) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(14) Academica Clinceni(16) Chindia Targoviste(10) Mioveni(12) Farul Constanta(7) FC Arges(9)</t>
+  </si>
+  <si>
+    <t>UTA Arad,Farul Constanta(7) FC Arges(9) FC Steaua Bucuresti(2) FC Botosani(5) Univ. Craiova(4) FC Voluntari(3) Gaz Metan Medias(13) FC Rapid Bucuresti(6) Sepsi Sf. Gheorghe(11) CFR Cluj(1) Din. Bucuresti(15) U Craiova 1948(14) Academica Clinceni(16) Chindia Targoviste(10) Mioveni(12) Farul Constanta(7)</t>
   </si>
   <si>
     <t>rou_division</t>
